--- a/biosteam/report/report.xlsx
+++ b/biosteam/report/report.xlsx
@@ -7,10 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Itemized costs" sheetId="1" r:id="rId1"/>
-    <sheet name="Stream table" sheetId="2" r:id="rId2"/>
-    <sheet name="Utilities" sheetId="3" r:id="rId3"/>
-    <sheet name="Design requirements" sheetId="4" r:id="rId4"/>
+    <sheet name="Flowsheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Itemized costs" sheetId="2" r:id="rId2"/>
+    <sheet name="Stream table" sheetId="3" r:id="rId3"/>
+    <sheet name="Utilities" sheetId="4" r:id="rId4"/>
+    <sheet name="Design requirements" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -325,12 +326,225 @@
     <t>1.8850413192298883</t>
   </si>
   <si>
-    <t>1.112438621649219</t>
+    <t>1.1124335809904224</t>
   </si>
   <si>
     <t>0.8660816093683782</t>
   </si>
   <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>Catalyst</t>
+  </si>
+  <si>
+    <t>Water_3</t>
+  </si>
+  <si>
+    <t>HCl1</t>
+  </si>
+  <si>
+    <t>HCl2</t>
+  </si>
+  <si>
+    <t>NaOH</t>
+  </si>
+  <si>
+    <t>Crude_glycerol</t>
+  </si>
+  <si>
+    <t>Biodiesel</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>d66</t>
+  </si>
+  <si>
+    <t>d67</t>
+  </si>
+  <si>
+    <t>d68</t>
+  </si>
+  <si>
+    <t>d69</t>
+  </si>
+  <si>
+    <t>d70</t>
+  </si>
+  <si>
+    <t>d71</t>
+  </si>
+  <si>
+    <t>d72</t>
+  </si>
+  <si>
+    <t>d73</t>
+  </si>
+  <si>
+    <t>d74</t>
+  </si>
+  <si>
+    <t>d75</t>
+  </si>
+  <si>
+    <t>d76</t>
+  </si>
+  <si>
+    <t>d77</t>
+  </si>
+  <si>
+    <t>d78</t>
+  </si>
+  <si>
+    <t>d79</t>
+  </si>
+  <si>
+    <t>d80</t>
+  </si>
+  <si>
+    <t>d81</t>
+  </si>
+  <si>
+    <t>d82</t>
+  </si>
+  <si>
+    <t>d83</t>
+  </si>
+  <si>
+    <t>d84</t>
+  </si>
+  <si>
+    <t>d85</t>
+  </si>
+  <si>
+    <t>d86</t>
+  </si>
+  <si>
+    <t>d87</t>
+  </si>
+  <si>
+    <t>d88</t>
+  </si>
+  <si>
+    <t>d89</t>
+  </si>
+  <si>
+    <t>d90</t>
+  </si>
+  <si>
+    <t>d91</t>
+  </si>
+  <si>
+    <t>d92</t>
+  </si>
+  <si>
+    <t>d93</t>
+  </si>
+  <si>
+    <t>d94</t>
+  </si>
+  <si>
+    <t>d95</t>
+  </si>
+  <si>
+    <t>d96</t>
+  </si>
+  <si>
+    <t>d97</t>
+  </si>
+  <si>
+    <t>d98</t>
+  </si>
+  <si>
+    <t>d99</t>
+  </si>
+  <si>
+    <t>d100</t>
+  </si>
+  <si>
+    <t>d101</t>
+  </si>
+  <si>
+    <t>d102</t>
+  </si>
+  <si>
+    <t>d103</t>
+  </si>
+  <si>
+    <t>d104</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Sink</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>flow (kg/min)</t>
+  </si>
+  <si>
+    <t>Composition:</t>
+  </si>
+  <si>
+    <t>- Lipid</t>
+  </si>
+  <si>
+    <t>- Methanol</t>
+  </si>
+  <si>
+    <t>- Glycerol</t>
+  </si>
+  <si>
+    <t>- Biodiesel</t>
+  </si>
+  <si>
+    <t>- Water</t>
+  </si>
+  <si>
+    <t>- NaOH</t>
+  </si>
+  <si>
+    <t>- HCl</t>
+  </si>
+  <si>
+    <t>- NaOCH3</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>U86</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>liquid|gas</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Denaturant</t>
+  </si>
+  <si>
+    <t>Yeast</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Recycle_yeast</t>
+  </si>
+  <si>
     <t>Stillage</t>
   </si>
   <si>
@@ -340,21 +554,6 @@
     <t>Water_5</t>
   </si>
   <si>
-    <t>Recycle_yeast</t>
-  </si>
-  <si>
-    <t>Denaturant</t>
-  </si>
-  <si>
-    <t>Yeast</t>
-  </si>
-  <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
     <t>d33</t>
   </si>
   <si>
@@ -457,30 +656,12 @@
     <t>S134</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Sink</t>
-  </si>
-  <si>
-    <t>Phase</t>
-  </si>
-  <si>
-    <t>flow (kg/min)</t>
-  </si>
-  <si>
-    <t>Composition:</t>
-  </si>
-  <si>
     <t>- CO2</t>
   </si>
   <si>
     <t>- Ethanol</t>
   </si>
   <si>
-    <t>- Water</t>
-  </si>
-  <si>
     <t>- Glucose</t>
   </si>
   <si>
@@ -496,18 +677,9 @@
     <t>- DryYeast</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
     <t>U56</t>
   </si>
   <si>
-    <t>gas</t>
-  </si>
-  <si>
     <t>U28</t>
   </si>
   <si>
@@ -523,175 +695,10 @@
     <t>U52</t>
   </si>
   <si>
-    <t>Water_3</t>
-  </si>
-  <si>
-    <t>HCl1</t>
-  </si>
-  <si>
-    <t>Catalyst</t>
-  </si>
-  <si>
-    <t>HCl2</t>
-  </si>
-  <si>
-    <t>NaOH</t>
-  </si>
-  <si>
-    <t>Crude_glycerol</t>
-  </si>
-  <si>
-    <t>Biodiesel</t>
-  </si>
-  <si>
-    <t>Waste</t>
-  </si>
-  <si>
-    <t>Methanol</t>
-  </si>
-  <si>
-    <t>d66</t>
-  </si>
-  <si>
-    <t>d67</t>
-  </si>
-  <si>
-    <t>d68</t>
-  </si>
-  <si>
-    <t>d69</t>
-  </si>
-  <si>
-    <t>d70</t>
-  </si>
-  <si>
-    <t>d71</t>
-  </si>
-  <si>
-    <t>d72</t>
-  </si>
-  <si>
-    <t>d73</t>
-  </si>
-  <si>
-    <t>d74</t>
-  </si>
-  <si>
-    <t>d75</t>
-  </si>
-  <si>
-    <t>d76</t>
-  </si>
-  <si>
-    <t>d77</t>
-  </si>
-  <si>
-    <t>d78</t>
-  </si>
-  <si>
-    <t>d79</t>
-  </si>
-  <si>
-    <t>d80</t>
-  </si>
-  <si>
-    <t>d81</t>
-  </si>
-  <si>
-    <t>d82</t>
-  </si>
-  <si>
-    <t>d83</t>
-  </si>
-  <si>
-    <t>d84</t>
-  </si>
-  <si>
-    <t>d85</t>
-  </si>
-  <si>
-    <t>d86</t>
-  </si>
-  <si>
-    <t>d87</t>
-  </si>
-  <si>
-    <t>d88</t>
-  </si>
-  <si>
-    <t>d89</t>
-  </si>
-  <si>
-    <t>d90</t>
-  </si>
-  <si>
-    <t>d91</t>
-  </si>
-  <si>
-    <t>d92</t>
-  </si>
-  <si>
-    <t>d93</t>
-  </si>
-  <si>
-    <t>d94</t>
-  </si>
-  <si>
-    <t>d95</t>
-  </si>
-  <si>
-    <t>d96</t>
-  </si>
-  <si>
-    <t>d97</t>
-  </si>
-  <si>
-    <t>d98</t>
-  </si>
-  <si>
-    <t>d99</t>
-  </si>
-  <si>
-    <t>d100</t>
-  </si>
-  <si>
-    <t>d101</t>
-  </si>
-  <si>
-    <t>d102</t>
-  </si>
-  <si>
-    <t>d103</t>
-  </si>
-  <si>
-    <t>d104</t>
-  </si>
-  <si>
-    <t>- Lipid</t>
-  </si>
-  <si>
-    <t>- Methanol</t>
-  </si>
-  <si>
-    <t>- Glycerol</t>
-  </si>
-  <si>
-    <t>- Biodiesel</t>
-  </si>
-  <si>
-    <t>- NaOH</t>
-  </si>
-  <si>
-    <t>- HCl</t>
-  </si>
-  <si>
-    <t>- NaOCH3</t>
-  </si>
-  <si>
-    <t>U86</t>
-  </si>
-  <si>
-    <t>liquid|gas</t>
+    <t>Combustibles</t>
+  </si>
+  <si>
+    <t>Emission</t>
   </si>
   <si>
     <t>Lipid_cane</t>
@@ -700,9 +707,6 @@
     <t>Enzyme</t>
   </si>
   <si>
-    <t>Emission</t>
-  </si>
-  <si>
     <t>Imbibition_water</t>
   </si>
   <si>
@@ -712,21 +716,18 @@
     <t>Lime</t>
   </si>
   <si>
+    <t>Polymer</t>
+  </si>
+  <si>
     <t>Water_1</t>
   </si>
   <si>
     <t>Water_2</t>
   </si>
   <si>
-    <t>Polymer</t>
-  </si>
-  <si>
     <t>Fiber_fines</t>
   </si>
   <si>
-    <t>Combustibles</t>
-  </si>
-  <si>
     <t>d0</t>
   </si>
   <si>
@@ -856,27 +857,27 @@
     <t>- Hemicellulose</t>
   </si>
   <si>
+    <t>X1</t>
+  </si>
+  <si>
     <t>BT</t>
   </si>
   <si>
     <t>U6</t>
   </si>
   <si>
-    <t>X1</t>
-  </si>
-  <si>
     <t>U15</t>
   </si>
   <si>
     <t>U26</t>
   </si>
   <si>
+    <t>Cooling_water</t>
+  </si>
+  <si>
     <t>Steam</t>
   </si>
   <si>
-    <t>Cooling_water</t>
-  </si>
-  <si>
     <t>CT</t>
   </si>
   <si>
@@ -1081,7 +1082,7 @@
     <t>10274.73299335591</t>
   </si>
   <si>
-    <t>20939.087288788924</t>
+    <t>20938.83447314715</t>
   </si>
   <si>
     <t>28869.39063499006</t>
@@ -1090,7 +1091,7 @@
     <t>152053.3093130784</t>
   </si>
   <si>
-    <t>370812.873883073</t>
+    <t>370811.1936634742</t>
   </si>
   <si>
     <t>SepType</t>
@@ -1347,6 +1348,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>115</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="diagram.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="70608825" cy="14658975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1634,9 +1678,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1687,10 +1744,10 @@
         <v>82</v>
       </c>
       <c r="C4">
-        <v>0.235783665264955</v>
+        <v>0.2357836652610359</v>
       </c>
       <c r="D4">
-        <v>0.00902470785166554</v>
+        <v>0.009024707851415781</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1701,10 +1758,10 @@
         <v>82</v>
       </c>
       <c r="C5">
-        <v>0.2242769784013155</v>
+        <v>0.2242769784006663</v>
       </c>
       <c r="D5">
-        <v>0.007616625700159371</v>
+        <v>0.00761662570011966</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1757,7 +1814,7 @@
         <v>86</v>
       </c>
       <c r="C9">
-        <v>3.007009240197259</v>
+        <v>3.007002014483689</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1855,7 +1912,7 @@
         <v>86</v>
       </c>
       <c r="C16">
-        <v>0.5494655798687935</v>
+        <v>0.5494808153000337</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1925,7 +1982,7 @@
         <v>86</v>
       </c>
       <c r="C21">
-        <v>0.2493476795981567</v>
+        <v>0.2493476795981192</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2009,10 +2066,10 @@
         <v>86</v>
       </c>
       <c r="C27">
-        <v>0.09323828759341524</v>
+        <v>0.09323400834966367</v>
       </c>
       <c r="D27">
-        <v>0.0009631735669852069</v>
+        <v>0.0009630893675901153</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2023,10 +2080,10 @@
         <v>86</v>
       </c>
       <c r="C28">
-        <v>0.09156296597808679</v>
+        <v>0.09155861590953397</v>
       </c>
       <c r="D28">
-        <v>0.0009304769707278738</v>
+        <v>0.0009303927705051657</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2037,10 +2094,10 @@
         <v>86</v>
       </c>
       <c r="C29">
-        <v>0.07858462475907919</v>
+        <v>0.07858462475907772</v>
       </c>
       <c r="D29">
-        <v>0.0006954456783730544</v>
+        <v>0.0006954456783730296</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2051,10 +2108,10 @@
         <v>86</v>
       </c>
       <c r="C30">
-        <v>0.04825961928150167</v>
+        <v>0.04825874684115831</v>
       </c>
       <c r="D30">
-        <v>0.0002747406025497811</v>
+        <v>0.0002747311420988</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2079,10 +2136,10 @@
         <v>87</v>
       </c>
       <c r="C32">
-        <v>2.61603907857148</v>
+        <v>2.616039078569634</v>
       </c>
       <c r="D32">
-        <v>0.3965511285523134</v>
+        <v>0.3965511285518258</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2093,10 +2150,10 @@
         <v>87</v>
       </c>
       <c r="C33">
-        <v>2.61072387567155</v>
+        <v>2.610723875671257</v>
       </c>
       <c r="D33">
-        <v>0.395148523817556</v>
+        <v>0.3951485238174784</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2107,10 +2164,10 @@
         <v>87</v>
       </c>
       <c r="C34">
-        <v>0.3776441725044609</v>
+        <v>0.3776367082427435</v>
       </c>
       <c r="D34">
-        <v>0.01361151411617189</v>
+        <v>0.01361104541565628</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2121,10 +2178,10 @@
         <v>87</v>
       </c>
       <c r="C35">
-        <v>0.2069128622541986</v>
+        <v>0.2069024795164707</v>
       </c>
       <c r="D35">
-        <v>0.004771864981611989</v>
+        <v>0.004771447831309404</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2152,7 +2209,7 @@
         <v>102</v>
       </c>
       <c r="D37">
-        <v>0.2095501846779456</v>
+        <v>0.209514196327613</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2289,10 +2346,10 @@
         <v>96</v>
       </c>
       <c r="C47">
-        <v>0.0616775216225925</v>
+        <v>0.06167629878533049</v>
       </c>
       <c r="D47">
-        <v>0.04800542428772163</v>
+        <v>0.04797677343569699</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2415,7 +2472,7 @@
         <v>98</v>
       </c>
       <c r="C56">
-        <v>0.04900263860565515</v>
+        <v>0.04900224630476002</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2457,7 +2514,7 @@
         <v>98</v>
       </c>
       <c r="C59">
-        <v>0.01241902365115677</v>
+        <v>0.01241767905802996</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2488,7 +2545,7 @@
         <v>0.1341645171495503</v>
       </c>
       <c r="D61">
-        <v>0.003360895509768473</v>
+        <v>0.003360895509768471</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2611,7 +2668,7 @@
         <v>100</v>
       </c>
       <c r="C70">
-        <v>0.01458929295267388</v>
+        <v>0.01458933390335388</v>
       </c>
       <c r="D70">
         <v>0.0004653243847874721</v>
@@ -2625,7 +2682,7 @@
         <v>100</v>
       </c>
       <c r="C71">
-        <v>0.01447645112509534</v>
+        <v>0.01447607152983614</v>
       </c>
       <c r="D71">
         <v>0.0004653243847874721</v>
@@ -2667,7 +2724,7 @@
         <v>100</v>
       </c>
       <c r="C74">
-        <v>0.01417691193481736</v>
+        <v>0.01417691252349286</v>
       </c>
       <c r="D74">
         <v>0.000348993288590604</v>
@@ -2681,7 +2738,7 @@
         <v>100</v>
       </c>
       <c r="C75">
-        <v>0.006044817217120383</v>
+        <v>0.006044817215911091</v>
       </c>
       <c r="D75">
         <v>0.000174496644295302</v>
@@ -2723,7 +2780,7 @@
         <v>100</v>
       </c>
       <c r="C78">
-        <v>0.001439651679413101</v>
+        <v>0.001439651679412512</v>
       </c>
       <c r="D78">
         <v>5.816554809843401e-05</v>
@@ -2748,7 +2805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AW58"/>
   <sheetViews>
@@ -2756,7 +2813,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:49">
       <c r="B2" s="1" t="s">
         <v>104</v>
       </c>
@@ -2883,3456 +2940,3474 @@
       <c r="AQ2" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="1:43">
+      <c r="AR2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
+        <v>167</v>
+      </c>
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49">
+      <c r="A4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49">
+      <c r="A5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N5" t="s">
+        <v>166</v>
+      </c>
+      <c r="O5" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>166</v>
+      </c>
+      <c r="R5" t="s">
+        <v>166</v>
+      </c>
+      <c r="S5" t="s">
+        <v>166</v>
+      </c>
+      <c r="T5" t="s">
+        <v>166</v>
+      </c>
+      <c r="U5" t="s">
+        <v>166</v>
+      </c>
+      <c r="V5" t="s">
+        <v>166</v>
+      </c>
+      <c r="W5" t="s">
+        <v>166</v>
+      </c>
+      <c r="X5" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49">
+      <c r="A6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6">
+        <v>3.279478753883296</v>
+      </c>
+      <c r="C6">
+        <v>2.750993631052223</v>
+      </c>
+      <c r="D6">
+        <v>4.083463466666667</v>
+      </c>
+      <c r="E6">
+        <v>0.3648144766666667</v>
+      </c>
+      <c r="F6">
+        <v>0.3648144766666667</v>
+      </c>
+      <c r="G6">
+        <v>0.6666184833333334</v>
+      </c>
+      <c r="H6">
+        <v>21.31290811055079</v>
+      </c>
+      <c r="I6">
+        <v>159.1803543736254</v>
+      </c>
+      <c r="J6">
+        <v>2.825193188234064</v>
+      </c>
+      <c r="K6">
+        <v>146.4876831922718</v>
+      </c>
+      <c r="L6">
+        <v>146.4876831922718</v>
+      </c>
+      <c r="M6">
+        <v>146.4876831922718</v>
+      </c>
+      <c r="N6">
+        <v>35.13842849740636</v>
+      </c>
+      <c r="O6">
+        <v>205.0557577777021</v>
+      </c>
+      <c r="P6">
+        <v>178.3032638667916</v>
+      </c>
+      <c r="Q6">
+        <v>26.75249391091045</v>
+      </c>
+      <c r="R6">
+        <v>26.75249391091045</v>
+      </c>
+      <c r="S6">
+        <v>3.478704421243228</v>
+      </c>
+      <c r="T6">
+        <v>184.101519755304</v>
+      </c>
+      <c r="U6">
+        <v>162.8258664783542</v>
+      </c>
+      <c r="V6">
+        <v>21.27565327694985</v>
+      </c>
+      <c r="W6">
+        <v>6.298556631130377</v>
+      </c>
+      <c r="X6">
+        <v>173.1459250316038</v>
+      </c>
+      <c r="Y6">
+        <v>159.5782948348892</v>
+      </c>
+      <c r="Z6">
+        <v>13.56763019671451</v>
+      </c>
+      <c r="AA6">
+        <v>0.3979404612638248</v>
+      </c>
+      <c r="AB6">
+        <v>159.1803543736254</v>
+      </c>
+      <c r="AC6">
+        <v>0.3979404612638248</v>
+      </c>
+      <c r="AD6">
+        <v>0.3979404612638248</v>
+      </c>
+      <c r="AE6">
+        <v>159.1803543736254</v>
+      </c>
+      <c r="AF6">
+        <v>62.35853232250531</v>
+      </c>
+      <c r="AG6">
+        <v>62.35853232250531</v>
+      </c>
+      <c r="AH6">
+        <v>59.53333913427124</v>
+      </c>
+      <c r="AI6">
+        <v>60.19995761760457</v>
+      </c>
+      <c r="AJ6">
+        <v>60.19995761760457</v>
+      </c>
+      <c r="AK6">
+        <v>6.298417886891094</v>
+      </c>
+      <c r="AL6">
+        <v>60.19995761760457</v>
+      </c>
+      <c r="AM6">
+        <v>21.31290811055079</v>
+      </c>
+      <c r="AN6">
+        <v>60.19995761760457</v>
+      </c>
+      <c r="AO6">
+        <v>21.31290811055079</v>
+      </c>
+      <c r="AP6">
+        <v>32.5884928759234</v>
+      </c>
+      <c r="AQ6">
+        <v>27.61146474168117</v>
+      </c>
+      <c r="AR6">
+        <v>32.5884928759234</v>
+      </c>
+      <c r="AS6">
+        <v>3.279478753883296</v>
+      </c>
+      <c r="AT6">
+        <v>3.279478753883296</v>
+      </c>
+      <c r="AU6">
+        <v>2.750993631052223</v>
+      </c>
+      <c r="AV6">
+        <v>2.750993631052223</v>
+      </c>
+      <c r="AW6">
+        <v>38.61713291864959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49">
+      <c r="A7" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49">
+      <c r="A8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.5651698214045509</v>
+      </c>
+      <c r="K8">
+        <v>0.9999988619338379</v>
+      </c>
+      <c r="L8">
+        <v>0.9999988619338379</v>
+      </c>
+      <c r="M8">
+        <v>0.9999988619338379</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.07143789477903922</v>
+      </c>
+      <c r="P8">
+        <v>0.08133482145517267</v>
+      </c>
+      <c r="Q8">
+        <v>0.005475658343009838</v>
+      </c>
+      <c r="R8">
+        <v>0.005475658343009838</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0.007877319074147519</v>
+      </c>
+      <c r="U8">
+        <v>0.008015948571701377</v>
+      </c>
+      <c r="V8">
+        <v>0.006816366079434019</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0.007538172045313616</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0.0961998339363101</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0.02560538021276268</v>
+      </c>
+      <c r="AG8">
+        <v>0.02560538021276268</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49">
+      <c r="A9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.75</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2.436308361126228e-07</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.9821905885863703</v>
+      </c>
+      <c r="O9">
+        <v>0.1446008055929035</v>
+      </c>
+      <c r="P9">
+        <v>0.0997779640924726</v>
+      </c>
+      <c r="Q9">
+        <v>0.4433415122322688</v>
+      </c>
+      <c r="R9">
+        <v>0.4433415122322688</v>
+      </c>
+      <c r="S9">
+        <v>0.9821905885863702</v>
+      </c>
+      <c r="T9">
+        <v>0.1125803210971052</v>
+      </c>
+      <c r="U9">
+        <v>0.01272906366585956</v>
+      </c>
+      <c r="V9">
+        <v>0.8767574440534268</v>
+      </c>
+      <c r="W9">
+        <v>0.002940607593018101</v>
+      </c>
+      <c r="X9">
+        <v>0.01207734114399</v>
+      </c>
+      <c r="Y9">
+        <v>0.002430232937935673</v>
+      </c>
+      <c r="Z9">
+        <v>0.1255436617386219</v>
+      </c>
+      <c r="AA9">
+        <v>0.9744514187197585</v>
+      </c>
+      <c r="AB9">
+        <v>2.436308361126228e-07</v>
+      </c>
+      <c r="AC9">
+        <v>0.9744514187197585</v>
+      </c>
+      <c r="AD9">
+        <v>0.9744514187197585</v>
+      </c>
+      <c r="AE9">
+        <v>2.436308361126228e-07</v>
+      </c>
+      <c r="AF9">
+        <v>0.5228664130281553</v>
+      </c>
+      <c r="AG9">
+        <v>0.5228664130281553</v>
+      </c>
+      <c r="AH9">
+        <v>0.5476793774935258</v>
+      </c>
+      <c r="AI9">
+        <v>0.5416147021943041</v>
+      </c>
+      <c r="AJ9">
+        <v>0.5416147021943041</v>
+      </c>
+      <c r="AK9">
+        <v>0.0029406723699781</v>
+      </c>
+      <c r="AL9">
+        <v>0.5416147021943041</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0.5416147021943041</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0.9999437733369168</v>
+      </c>
+      <c r="AQ9">
+        <v>0.0006707932240406298</v>
+      </c>
+      <c r="AR9">
+        <v>0.9999437733369168</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>0.75</v>
+      </c>
+      <c r="AV9">
+        <v>0.75</v>
+      </c>
+      <c r="AW9">
+        <v>0.9821905885863703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49">
+      <c r="A10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.7749778498597918</v>
+      </c>
+      <c r="I10">
+        <v>7.013207517186278e-05</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.07334251780122394</v>
+      </c>
+      <c r="P10">
+        <v>0.005060806596212488</v>
+      </c>
+      <c r="Q10">
+        <v>0.5284347425039818</v>
+      </c>
+      <c r="R10">
+        <v>0.5284347425039818</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0.01298875526949464</v>
+      </c>
+      <c r="U10">
+        <v>0.000734296594442372</v>
+      </c>
+      <c r="V10">
+        <v>0.1067740236236436</v>
+      </c>
+      <c r="W10">
+        <v>0.0009675459644283907</v>
+      </c>
+      <c r="X10">
+        <v>0.0007257182438872045</v>
+      </c>
+      <c r="Y10">
+        <v>6.995718678637052e-05</v>
+      </c>
+      <c r="Z10">
+        <v>0.008438578175507099</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>7.013207517186278e-05</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>7.013207517186278e-05</v>
+      </c>
+      <c r="AF10">
+        <v>0.2649697680402417</v>
+      </c>
+      <c r="AG10">
+        <v>0.2649697680402417</v>
+      </c>
+      <c r="AH10">
+        <v>0.2775440800919625</v>
+      </c>
+      <c r="AI10">
+        <v>0.2744707222184523</v>
+      </c>
+      <c r="AJ10">
+        <v>0.2744707222184523</v>
+      </c>
+      <c r="AK10">
+        <v>0.0009675672264553894</v>
+      </c>
+      <c r="AL10">
+        <v>0.2744707222184523</v>
+      </c>
+      <c r="AM10">
+        <v>0.7749778498597918</v>
+      </c>
+      <c r="AN10">
+        <v>0.2744707222184523</v>
+      </c>
+      <c r="AO10">
+        <v>0.7749778498597918</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0.5984154045939291</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49">
+      <c r="A11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.9999296179063754</v>
+      </c>
+      <c r="J11">
+        <v>0.1642611933982203</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.7083593236972324</v>
+      </c>
+      <c r="P11">
+        <v>0.8138264078561422</v>
+      </c>
+      <c r="Q11">
+        <v>0.005429518398671404</v>
+      </c>
+      <c r="R11">
+        <v>0.005429518398671404</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0.8663044584628203</v>
+      </c>
+      <c r="U11">
+        <v>0.9785206911679968</v>
+      </c>
+      <c r="V11">
+        <v>0.007496266521065127</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0.9201976851453212</v>
+      </c>
+      <c r="Y11">
+        <v>0.9974360929956553</v>
+      </c>
+      <c r="Z11">
+        <v>0.01174327993145118</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0.9999296179063754</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0.9999296179063754</v>
+      </c>
+      <c r="AF11">
+        <v>0.007441958420056764</v>
+      </c>
+      <c r="AG11">
+        <v>0.007441958420056764</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49">
+      <c r="A12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.6501967488625703</v>
+      </c>
+      <c r="F12">
+        <v>0.6501967488625703</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.1937444624649479</v>
+      </c>
+      <c r="I12">
+        <v>6.387616764903144e-09</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1.138066162066059e-06</v>
+      </c>
+      <c r="L12">
+        <v>1.138066162066059e-06</v>
+      </c>
+      <c r="M12">
+        <v>1.138066162066059e-06</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0.9960918464425534</v>
+      </c>
+      <c r="X12">
+        <v>0.05872405602695525</v>
+      </c>
+      <c r="Y12">
+        <v>6.371687962273424e-05</v>
+      </c>
+      <c r="Z12">
+        <v>0.7486689292174429</v>
+      </c>
+      <c r="AA12">
+        <v>0.02554858128024142</v>
+      </c>
+      <c r="AB12">
+        <v>6.387616764903144e-09</v>
+      </c>
+      <c r="AC12">
+        <v>0.02554858128024142</v>
+      </c>
+      <c r="AD12">
+        <v>0.02554858128024142</v>
+      </c>
+      <c r="AE12">
+        <v>6.387616764903144e-09</v>
+      </c>
+      <c r="AF12">
+        <v>0.1668581793821864</v>
+      </c>
+      <c r="AG12">
+        <v>0.1668581793821864</v>
+      </c>
+      <c r="AH12">
+        <v>0.1747765424145116</v>
+      </c>
+      <c r="AI12">
+        <v>0.1728411710581614</v>
+      </c>
+      <c r="AJ12">
+        <v>0.1728411710581614</v>
+      </c>
+      <c r="AK12">
+        <v>0.9960917604035666</v>
+      </c>
+      <c r="AL12">
+        <v>0.1728411710581614</v>
+      </c>
+      <c r="AM12">
+        <v>0.1937444624649479</v>
+      </c>
+      <c r="AN12">
+        <v>0.1728411710581614</v>
+      </c>
+      <c r="AO12">
+        <v>0.1937444624649479</v>
+      </c>
+      <c r="AP12">
+        <v>5.62266630831852e-05</v>
+      </c>
+      <c r="AQ12">
+        <v>0.3767709872473691</v>
+      </c>
+      <c r="AR12">
+        <v>5.62266630831852e-05</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49">
+      <c r="A13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0.03127768767526046</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.1802294710489825</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0.002259458129600962</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.01731856852206819</v>
+      </c>
+      <c r="R13">
+        <v>0.01731856852206819</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0.0002491460964323606</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0.002155899722430283</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0.008165411451527197</v>
+      </c>
+      <c r="AG13">
+        <v>0.008165411451527197</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0.01107340452908211</v>
+      </c>
+      <c r="AJ13">
+        <v>0.01107340452908211</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0.01107340452908211</v>
+      </c>
+      <c r="AM13">
+        <v>0.03127768767526046</v>
+      </c>
+      <c r="AN13">
+        <v>0.01107340452908211</v>
+      </c>
+      <c r="AO13">
+        <v>0.03127768767526046</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0.02414281493466127</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49">
+      <c r="A14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.3498032511374297</v>
+      </c>
+      <c r="F14">
+        <v>0.3498032511374297</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.0903395141482462</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0.0007370273945327166</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0.009405717000666952</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0.004092889465069855</v>
+      </c>
+      <c r="AG14">
+        <v>0.004092889465069855</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49">
+      <c r="A15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.25</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.01780941141362977</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.01780941141362976</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0.25</v>
+      </c>
+      <c r="AV15">
+        <v>0.25</v>
+      </c>
+      <c r="AW15">
+        <v>0.01780941141362976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48">
+      <c r="B17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48">
+      <c r="A18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H18" t="s">
+        <v>219</v>
+      </c>
+      <c r="I18" t="s">
+        <v>219</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s">
+        <v>220</v>
+      </c>
+      <c r="L18" t="s">
+        <v>220</v>
+      </c>
+      <c r="M18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>52</v>
+      </c>
+      <c r="R18" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s">
+        <v>18</v>
+      </c>
+      <c r="U18" t="s">
+        <v>46</v>
+      </c>
+      <c r="V18" t="s">
+        <v>222</v>
+      </c>
+      <c r="W18" t="s">
+        <v>67</v>
+      </c>
+      <c r="X18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>224</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48">
+      <c r="A19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>220</v>
+      </c>
+      <c r="K19" t="s">
+        <v>221</v>
+      </c>
+      <c r="L19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" t="s">
+        <v>221</v>
+      </c>
+      <c r="P19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s">
+        <v>18</v>
+      </c>
+      <c r="T19" t="s">
+        <v>46</v>
+      </c>
+      <c r="U19" t="s">
+        <v>222</v>
+      </c>
+      <c r="V19" t="s">
+        <v>67</v>
+      </c>
+      <c r="W19" t="s">
+        <v>51</v>
+      </c>
+      <c r="X19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48">
+      <c r="A20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="s">
+        <v>166</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>166</v>
+      </c>
+      <c r="P20" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>166</v>
+      </c>
+      <c r="R20" t="s">
+        <v>166</v>
+      </c>
+      <c r="S20" t="s">
+        <v>166</v>
+      </c>
+      <c r="T20" t="s">
+        <v>166</v>
+      </c>
+      <c r="U20" t="s">
+        <v>166</v>
+      </c>
+      <c r="V20" t="s">
+        <v>166</v>
+      </c>
+      <c r="W20" t="s">
+        <v>166</v>
+      </c>
+      <c r="X20" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48">
+      <c r="A21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21">
+        <v>179.0683480313021</v>
+      </c>
+      <c r="C21">
+        <v>3.844833333333333</v>
+      </c>
+      <c r="D21">
+        <v>599.25</v>
+      </c>
+      <c r="E21">
+        <v>192.2663897221495</v>
+      </c>
+      <c r="F21">
+        <v>254.5763584377483</v>
+      </c>
+      <c r="G21">
+        <v>1629.525205625321</v>
+      </c>
+      <c r="H21">
+        <v>61.58204788423036</v>
+      </c>
+      <c r="I21">
+        <v>75.26683739633403</v>
+      </c>
+      <c r="J21">
+        <v>4776.587779149399</v>
+      </c>
+      <c r="K21">
+        <v>1265.795761474591</v>
+      </c>
+      <c r="L21">
+        <v>3510.792017674809</v>
+      </c>
+      <c r="M21">
+        <v>440.0664185815106</v>
+      </c>
+      <c r="N21">
+        <v>3070.725599093298</v>
+      </c>
+      <c r="O21">
+        <v>440.0664185815106</v>
+      </c>
+      <c r="P21">
+        <v>1705.862180056101</v>
+      </c>
+      <c r="Q21">
+        <v>1705.862180056101</v>
+      </c>
+      <c r="R21">
+        <v>599.25</v>
+      </c>
+      <c r="S21">
+        <v>2126.044061291856</v>
+      </c>
+      <c r="T21">
+        <v>2126.044061291856</v>
+      </c>
+      <c r="U21">
+        <v>1871.467702854108</v>
+      </c>
+      <c r="V21">
+        <v>1954.801036187441</v>
+      </c>
+      <c r="W21">
+        <v>1954.801036187441</v>
+      </c>
+      <c r="X21">
+        <v>1629.525205625321</v>
+      </c>
+      <c r="Y21">
+        <v>1954.801036187441</v>
+      </c>
+      <c r="Z21">
+        <v>325.2758305621201</v>
+      </c>
+      <c r="AA21">
+        <v>1629.525205625321</v>
+      </c>
+      <c r="AB21">
+        <v>57.45988112379094</v>
+      </c>
+      <c r="AC21">
+        <v>382.7303227931715</v>
+      </c>
+      <c r="AD21">
+        <v>245.8814375126071</v>
+      </c>
+      <c r="AE21">
+        <v>136.8488852805644</v>
+      </c>
+      <c r="AF21">
+        <v>245.8814375126071</v>
+      </c>
+      <c r="AG21">
+        <v>188.4215563888162</v>
+      </c>
+      <c r="AH21">
+        <v>136.8488852805644</v>
+      </c>
+      <c r="AI21">
+        <v>188.4215563888162</v>
+      </c>
+      <c r="AJ21">
+        <v>188.4215563888162</v>
+      </c>
+      <c r="AK21">
+        <v>188.4215563888162</v>
+      </c>
+      <c r="AL21">
+        <v>3.844833333333333</v>
+      </c>
+      <c r="AM21">
+        <v>3.844833333333333</v>
+      </c>
+      <c r="AN21">
+        <v>192.2663897221495</v>
+      </c>
+      <c r="AO21">
+        <v>3070.725599093298</v>
+      </c>
+      <c r="AP21">
+        <v>136.8488852805644</v>
+      </c>
+      <c r="AQ21">
+        <v>83.33333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48">
+      <c r="A22" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48">
+      <c r="A23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48">
+      <c r="A24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.02656097900152969</v>
+      </c>
+      <c r="E24">
+        <v>0.9710030682969414</v>
+      </c>
+      <c r="F24">
+        <v>0.06382857483903991</v>
+      </c>
+      <c r="G24">
+        <v>9.732154120079102e-05</v>
+      </c>
+      <c r="H24">
+        <v>0.0001007406597518719</v>
+      </c>
+      <c r="I24">
+        <v>9.939400477206353e-05</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.02656097900152969</v>
+      </c>
+      <c r="S24">
+        <v>0.09553713607914022</v>
+      </c>
+      <c r="T24">
+        <v>0.09553713607914022</v>
+      </c>
+      <c r="U24">
+        <v>0.09985046194604905</v>
+      </c>
+      <c r="V24">
+        <v>0.09559382831694779</v>
+      </c>
+      <c r="W24">
+        <v>0.09559382831694779</v>
+      </c>
+      <c r="X24">
+        <v>9.732154120079102e-05</v>
+      </c>
+      <c r="Y24">
+        <v>0.09559382831694779</v>
+      </c>
+      <c r="Z24">
+        <v>0.5739999999999998</v>
+      </c>
+      <c r="AA24">
+        <v>9.732154120079102e-05</v>
+      </c>
+      <c r="AB24">
+        <v>0.6286084562921044</v>
+      </c>
+      <c r="AC24">
+        <v>0.5821976810849134</v>
+      </c>
+      <c r="AD24">
+        <v>0.9061726000000001</v>
+      </c>
+      <c r="AE24">
+        <v>0.0001000000000001582</v>
+      </c>
+      <c r="AF24">
+        <v>0.9061726000000001</v>
+      </c>
+      <c r="AG24">
+        <v>0.9908168573097712</v>
+      </c>
+      <c r="AH24">
+        <v>0.0001000000000001582</v>
+      </c>
+      <c r="AI24">
+        <v>0.9908168573097712</v>
+      </c>
+      <c r="AJ24">
+        <v>0.9908168573097712</v>
+      </c>
+      <c r="AK24">
+        <v>0.9908168573097712</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0.9710030682969414</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0.0001000000000001582</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48">
+      <c r="A25" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>163</v>
-      </c>
-      <c r="L3" t="s">
-        <v>163</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" t="s">
-        <v>165</v>
-      </c>
-      <c r="W3" t="s">
-        <v>67</v>
-      </c>
-      <c r="X3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
-      <c r="A4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K4" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>164</v>
-      </c>
-      <c r="P4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" t="s">
-        <v>165</v>
-      </c>
-      <c r="V4" t="s">
-        <v>67</v>
-      </c>
-      <c r="W4" t="s">
-        <v>51</v>
-      </c>
-      <c r="X4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
-      <c r="A5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I5" t="s">
-        <v>162</v>
-      </c>
-      <c r="J5" t="s">
-        <v>160</v>
-      </c>
-      <c r="K5" t="s">
-        <v>160</v>
-      </c>
-      <c r="L5" t="s">
-        <v>160</v>
-      </c>
-      <c r="M5" t="s">
-        <v>160</v>
-      </c>
-      <c r="N5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O5" t="s">
-        <v>160</v>
-      </c>
-      <c r="P5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>160</v>
-      </c>
-      <c r="R5" t="s">
-        <v>160</v>
-      </c>
-      <c r="S5" t="s">
-        <v>160</v>
-      </c>
-      <c r="T5" t="s">
-        <v>160</v>
-      </c>
-      <c r="U5" t="s">
-        <v>160</v>
-      </c>
-      <c r="V5" t="s">
-        <v>160</v>
-      </c>
-      <c r="W5" t="s">
-        <v>160</v>
-      </c>
-      <c r="X5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
-      <c r="A6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6">
-        <v>1629.525205625321</v>
-      </c>
-      <c r="C6">
-        <v>61.58204788423036</v>
-      </c>
-      <c r="D6">
-        <v>75.26683739633403</v>
-      </c>
-      <c r="E6">
-        <v>254.5763584377483</v>
-      </c>
-      <c r="F6">
-        <v>3.844833333333333</v>
-      </c>
-      <c r="G6">
-        <v>599.25</v>
-      </c>
-      <c r="H6">
-        <v>192.2663897221495</v>
-      </c>
-      <c r="I6">
-        <v>179.0683480313021</v>
-      </c>
-      <c r="J6">
-        <v>4776.587779149399</v>
-      </c>
-      <c r="K6">
-        <v>1265.795761474591</v>
-      </c>
-      <c r="L6">
-        <v>3510.792017674809</v>
-      </c>
-      <c r="M6">
-        <v>440.0664185815106</v>
-      </c>
-      <c r="N6">
-        <v>3070.725599093298</v>
-      </c>
-      <c r="O6">
-        <v>440.0664185815106</v>
-      </c>
-      <c r="P6">
-        <v>1705.862180056101</v>
-      </c>
-      <c r="Q6">
-        <v>1705.862180056101</v>
-      </c>
-      <c r="R6">
-        <v>599.25</v>
-      </c>
-      <c r="S6">
-        <v>2126.044061291856</v>
-      </c>
-      <c r="T6">
-        <v>2126.044061291856</v>
-      </c>
-      <c r="U6">
-        <v>1871.467702854108</v>
-      </c>
-      <c r="V6">
-        <v>1954.801036187441</v>
-      </c>
-      <c r="W6">
-        <v>1954.801036187441</v>
-      </c>
-      <c r="X6">
-        <v>1629.525205625321</v>
-      </c>
-      <c r="Y6">
-        <v>1954.801036187441</v>
-      </c>
-      <c r="Z6">
-        <v>325.2758305621201</v>
-      </c>
-      <c r="AA6">
-        <v>1629.525205625321</v>
-      </c>
-      <c r="AB6">
-        <v>57.45988112379094</v>
-      </c>
-      <c r="AC6">
-        <v>382.7303227931715</v>
-      </c>
-      <c r="AD6">
-        <v>245.8814375126071</v>
-      </c>
-      <c r="AE6">
-        <v>136.8488852805644</v>
-      </c>
-      <c r="AF6">
-        <v>245.8814375126071</v>
-      </c>
-      <c r="AG6">
-        <v>188.4215563888162</v>
-      </c>
-      <c r="AH6">
-        <v>136.8488852805644</v>
-      </c>
-      <c r="AI6">
-        <v>188.4215563888162</v>
-      </c>
-      <c r="AJ6">
-        <v>188.4215563888162</v>
-      </c>
-      <c r="AK6">
-        <v>188.4215563888162</v>
-      </c>
-      <c r="AL6">
-        <v>3.844833333333333</v>
-      </c>
-      <c r="AM6">
-        <v>3.844833333333333</v>
-      </c>
-      <c r="AN6">
-        <v>192.2663897221495</v>
-      </c>
-      <c r="AO6">
-        <v>3070.725599093298</v>
-      </c>
-      <c r="AP6">
-        <v>136.8488852805644</v>
-      </c>
-      <c r="AQ6">
-        <v>83.33333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
-      <c r="A7" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
-      <c r="A8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.6869698233903491</v>
+      </c>
+      <c r="E25">
+        <v>0.008999503453172452</v>
+      </c>
+      <c r="F25">
+        <v>0.2685756592883</v>
+      </c>
+      <c r="G25">
+        <v>0.9731180904666389</v>
+      </c>
+      <c r="H25">
+        <v>0.9998992593402481</v>
+      </c>
+      <c r="I25">
+        <v>0.999900605995228</v>
+      </c>
+      <c r="J25">
+        <v>0.9184717025754253</v>
+      </c>
+      <c r="K25">
+        <v>0.9184717025754251</v>
+      </c>
+      <c r="L25">
+        <v>0.9184717025754252</v>
+      </c>
+      <c r="M25">
+        <v>0.3495779643094978</v>
+      </c>
+      <c r="N25">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
-      <c r="A9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9">
-        <v>9.732154120079102e-05</v>
-      </c>
-      <c r="C9">
-        <v>0.0001007406597518719</v>
-      </c>
-      <c r="D9">
-        <v>9.939400477206353e-05</v>
-      </c>
-      <c r="E9">
-        <v>0.06382857483903991</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0.02656097900152969</v>
-      </c>
-      <c r="H9">
-        <v>0.9710030682969414</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0.02656097900152969</v>
-      </c>
-      <c r="S9">
-        <v>0.09553713607914022</v>
-      </c>
-      <c r="T9">
-        <v>0.09553713607914022</v>
-      </c>
-      <c r="U9">
-        <v>0.09985046194604905</v>
-      </c>
-      <c r="V9">
-        <v>0.09559382831694779</v>
-      </c>
-      <c r="W9">
-        <v>0.09559382831694779</v>
-      </c>
-      <c r="X9">
-        <v>9.732154120079102e-05</v>
-      </c>
-      <c r="Y9">
-        <v>0.09559382831694779</v>
-      </c>
-      <c r="Z9">
-        <v>0.5739999999999998</v>
-      </c>
-      <c r="AA9">
-        <v>9.732154120079102e-05</v>
-      </c>
-      <c r="AB9">
-        <v>0.6286084562921044</v>
-      </c>
-      <c r="AC9">
-        <v>0.5821976810849134</v>
-      </c>
-      <c r="AD9">
-        <v>0.9061726000000001</v>
-      </c>
-      <c r="AE9">
-        <v>0.0001000000000001582</v>
-      </c>
-      <c r="AF9">
-        <v>0.9061726000000001</v>
-      </c>
-      <c r="AG9">
-        <v>0.9908168573097712</v>
-      </c>
-      <c r="AH9">
-        <v>0.0001000000000001582</v>
-      </c>
-      <c r="AI9">
-        <v>0.9908168573097712</v>
-      </c>
-      <c r="AJ9">
-        <v>0.9908168573097712</v>
-      </c>
-      <c r="AK9">
-        <v>0.9908168573097712</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0.9710030682969414</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0.0001000000000001582</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
-      <c r="A10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10">
+      <c r="O25">
+        <v>0.3495779643094978</v>
+      </c>
+      <c r="P25">
+        <v>0.7717124667596101</v>
+      </c>
+      <c r="Q25">
+        <v>0.7717124667596101</v>
+      </c>
+      <c r="R25">
+        <v>0.6869698233903491</v>
+      </c>
+      <c r="S25">
+        <v>0.8039944568314765</v>
+      </c>
+      <c r="T25">
+        <v>0.8039944568314765</v>
+      </c>
+      <c r="U25">
+        <v>0.8768276494694185</v>
+      </c>
+      <c r="V25">
+        <v>0.8820784971793389</v>
+      </c>
+      <c r="W25">
+        <v>0.8820784971793389</v>
+      </c>
+      <c r="X25">
         <v>0.9731180904666389</v>
       </c>
-      <c r="C10">
-        <v>0.9998992593402481</v>
-      </c>
-      <c r="D10">
-        <v>0.999900605995228</v>
-      </c>
-      <c r="E10">
-        <v>0.2685756592883</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0.6869698233903491</v>
-      </c>
-      <c r="H10">
+      <c r="Y25">
+        <v>0.8820784971793389</v>
+      </c>
+      <c r="Z25">
+        <v>0.4260000000000002</v>
+      </c>
+      <c r="AA25">
+        <v>0.9731180904666389</v>
+      </c>
+      <c r="AB25">
+        <v>0.3713915437078957</v>
+      </c>
+      <c r="AC25">
+        <v>0.4178023189150867</v>
+      </c>
+      <c r="AD25">
+        <v>0.09382739999999996</v>
+      </c>
+      <c r="AE25">
+        <v>0.9998999999999999</v>
+      </c>
+      <c r="AF25">
+        <v>0.09382739999999996</v>
+      </c>
+      <c r="AG25">
+        <v>0.00918314269022877</v>
+      </c>
+      <c r="AH25">
+        <v>0.9998999999999999</v>
+      </c>
+      <c r="AI25">
+        <v>0.00918314269022877</v>
+      </c>
+      <c r="AJ25">
+        <v>0.00918314269022877</v>
+      </c>
+      <c r="AK25">
+        <v>0.00918314269022877</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
         <v>0.008999503453172452</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.9184717025754253</v>
-      </c>
-      <c r="K10">
-        <v>0.9184717025754251</v>
-      </c>
-      <c r="L10">
-        <v>0.9184717025754252</v>
-      </c>
-      <c r="M10">
-        <v>0.3495779643094978</v>
-      </c>
-      <c r="N10">
+      <c r="AO25">
         <v>1</v>
       </c>
-      <c r="O10">
-        <v>0.3495779643094978</v>
-      </c>
-      <c r="P10">
-        <v>0.7717124667596101</v>
-      </c>
-      <c r="Q10">
-        <v>0.7717124667596101</v>
-      </c>
-      <c r="R10">
-        <v>0.6869698233903491</v>
-      </c>
-      <c r="S10">
-        <v>0.8039944568314765</v>
-      </c>
-      <c r="T10">
-        <v>0.8039944568314765</v>
-      </c>
-      <c r="U10">
-        <v>0.8768276494694185</v>
-      </c>
-      <c r="V10">
-        <v>0.8820784971793389</v>
-      </c>
-      <c r="W10">
-        <v>0.8820784971793389</v>
-      </c>
-      <c r="X10">
-        <v>0.9731180904666389</v>
-      </c>
-      <c r="Y10">
-        <v>0.8820784971793389</v>
-      </c>
-      <c r="Z10">
-        <v>0.4260000000000002</v>
-      </c>
-      <c r="AA10">
-        <v>0.9731180904666389</v>
-      </c>
-      <c r="AB10">
-        <v>0.3713915437078957</v>
-      </c>
-      <c r="AC10">
-        <v>0.4178023189150867</v>
-      </c>
-      <c r="AD10">
-        <v>0.09382739999999996</v>
-      </c>
-      <c r="AE10">
+      <c r="AP25">
         <v>0.9998999999999999</v>
       </c>
-      <c r="AF10">
-        <v>0.09382739999999996</v>
-      </c>
-      <c r="AG10">
-        <v>0.00918314269022877</v>
-      </c>
-      <c r="AH10">
-        <v>0.9998999999999999</v>
-      </c>
-      <c r="AI10">
-        <v>0.00918314269022877</v>
-      </c>
-      <c r="AJ10">
-        <v>0.00918314269022877</v>
-      </c>
-      <c r="AK10">
-        <v>0.00918314269022877</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0.008999503453172452</v>
-      </c>
-      <c r="AO10">
+      <c r="AQ25">
         <v>1</v>
       </c>
-      <c r="AP10">
-        <v>0.9998999999999999</v>
-      </c>
-      <c r="AQ10">
+    </row>
+    <row r="26" spans="1:48">
+      <c r="A26" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1.600544402368832e-05</v>
+      </c>
+      <c r="G26">
+        <v>0.02497190725149441</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.006589401116886571</v>
+      </c>
+      <c r="K26">
+        <v>0.006589401116886569</v>
+      </c>
+      <c r="L26">
+        <v>0.006589401116886569</v>
+      </c>
+      <c r="M26">
+        <v>0.05256937558878485</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0.05256937558878485</v>
+      </c>
+      <c r="P26">
+        <v>0.01845099399870549</v>
+      </c>
+      <c r="Q26">
+        <v>0.01845099399870549</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0.01914185488788698</v>
+      </c>
+      <c r="T26">
+        <v>0.01914185488788698</v>
+      </c>
+      <c r="U26">
+        <v>0.02174355038924233</v>
+      </c>
+      <c r="V26">
+        <v>0.02081662099904166</v>
+      </c>
+      <c r="W26">
+        <v>0.02081662099904166</v>
+      </c>
+      <c r="X26">
+        <v>0.02497190725149441</v>
+      </c>
+      <c r="Y26">
+        <v>0.02081662099904166</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0.02497190725149441</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48">
+      <c r="A27" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.07467988993664085</v>
+      </c>
+      <c r="K27">
+        <v>0.07467988993664082</v>
+      </c>
+      <c r="L27">
+        <v>0.07467988993664082</v>
+      </c>
+      <c r="M27">
+        <v>0.5957863413334481</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0.5957863413334481</v>
+      </c>
+      <c r="P27">
+        <v>0.2091112950331365</v>
+      </c>
+      <c r="Q27">
+        <v>0.2091112950331365</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48">
+      <c r="A28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0.000759219104065292</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.0002590063710473626</v>
+      </c>
+      <c r="K28">
+        <v>0.0002590063710473625</v>
+      </c>
+      <c r="L28">
+        <v>0.0002590063710473625</v>
+      </c>
+      <c r="M28">
+        <v>0.002066318768269234</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0.002066318768269234</v>
+      </c>
+      <c r="P28">
+        <v>0.0007252442085479494</v>
+      </c>
+      <c r="Q28">
+        <v>0.0007252442085479494</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0.0005819101726024072</v>
+      </c>
+      <c r="T28">
+        <v>0.0005819101726024072</v>
+      </c>
+      <c r="U28">
+        <v>0.000661067602064363</v>
+      </c>
+      <c r="V28">
+        <v>0.0006328862343349187</v>
+      </c>
+      <c r="W28">
+        <v>0.0006328862343349187</v>
+      </c>
+      <c r="X28">
+        <v>0.000759219104065292</v>
+      </c>
+      <c r="Y28">
+        <v>0.0006328862343349187</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0.000759219104065292</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48">
+      <c r="A29" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:43">
-      <c r="A11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11">
-        <v>0.02497190725149441</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1.600544402368832e-05</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.006589401116886571</v>
-      </c>
-      <c r="K11">
-        <v>0.006589401116886569</v>
-      </c>
-      <c r="L11">
-        <v>0.006589401116886569</v>
-      </c>
-      <c r="M11">
-        <v>0.05256937558878485</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0.05256937558878485</v>
-      </c>
-      <c r="P11">
-        <v>0.01845099399870549</v>
-      </c>
-      <c r="Q11">
-        <v>0.01845099399870549</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0.01914185488788698</v>
-      </c>
-      <c r="T11">
-        <v>0.01914185488788698</v>
-      </c>
-      <c r="U11">
-        <v>0.02174355038924233</v>
-      </c>
-      <c r="V11">
-        <v>0.02081662099904166</v>
-      </c>
-      <c r="W11">
-        <v>0.02081662099904166</v>
-      </c>
-      <c r="X11">
-        <v>0.02497190725149441</v>
-      </c>
-      <c r="Y11">
-        <v>0.02081662099904166</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0.02497190725149441</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
-      <c r="A12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0.07467988993664085</v>
-      </c>
-      <c r="K12">
-        <v>0.07467988993664082</v>
-      </c>
-      <c r="L12">
-        <v>0.07467988993664082</v>
-      </c>
-      <c r="M12">
-        <v>0.5957863413334481</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0.5957863413334481</v>
-      </c>
-      <c r="P12">
-        <v>0.2091112950331365</v>
-      </c>
-      <c r="Q12">
-        <v>0.2091112950331365</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
-      <c r="A13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13">
-        <v>0.000759219104065292</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.0002590063710473626</v>
-      </c>
-      <c r="K13">
-        <v>0.0002590063710473625</v>
-      </c>
-      <c r="L13">
-        <v>0.0002590063710473625</v>
-      </c>
-      <c r="M13">
-        <v>0.002066318768269234</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0.002066318768269234</v>
-      </c>
-      <c r="P13">
-        <v>0.0007252442085479494</v>
-      </c>
-      <c r="Q13">
-        <v>0.0007252442085479494</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0.0005819101726024072</v>
-      </c>
-      <c r="T13">
-        <v>0.0005819101726024072</v>
-      </c>
-      <c r="U13">
-        <v>0.000661067602064363</v>
-      </c>
-      <c r="V13">
-        <v>0.0006328862343349187</v>
-      </c>
-      <c r="W13">
-        <v>0.0006328862343349187</v>
-      </c>
-      <c r="X13">
-        <v>0.000759219104065292</v>
-      </c>
-      <c r="Y13">
-        <v>0.0006328862343349187</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0.000759219104065292</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
-      <c r="A14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0.01999742824988615</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
         <v>1</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
         <v>0.01999742824988615</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>1</v>
-      </c>
-      <c r="AM14">
-        <v>1</v>
-      </c>
-      <c r="AN14">
-        <v>0.01999742824988615</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
-      <c r="A15" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15">
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48">
+      <c r="A30" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0.2864691976081213</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.6675797604286364</v>
+      </c>
+      <c r="G30">
         <v>0.001053461636600612</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0.6675797604286364</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <v>0.2864691976081213</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0.2864691976081213</v>
-      </c>
-      <c r="S15">
+      <c r="S30">
         <v>0.08074464202889391</v>
       </c>
-      <c r="T15">
+      <c r="T30">
         <v>0.08074464202889391</v>
       </c>
-      <c r="U15">
+      <c r="U30">
         <v>0.0009172705932258468</v>
       </c>
-      <c r="V15">
+      <c r="V30">
         <v>0.0008781672703366602</v>
       </c>
-      <c r="W15">
+      <c r="W30">
         <v>0.0008781672703366602</v>
       </c>
-      <c r="X15">
+      <c r="X30">
         <v>0.001053461636600612</v>
       </c>
-      <c r="Y15">
+      <c r="Y30">
         <v>0.0008781672703366602</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
         <v>0.001053461636600612</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:49">
-      <c r="B17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH17" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI17" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AN17" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AP17" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AQ17" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AS17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AU17" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AV17" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AW17" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:49">
-      <c r="A18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" t="s">
-        <v>159</v>
-      </c>
-      <c r="K18" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" t="s">
-        <v>223</v>
-      </c>
-      <c r="O18" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" t="s">
-        <v>76</v>
-      </c>
-      <c r="S18" t="s">
-        <v>223</v>
-      </c>
-      <c r="T18" t="s">
-        <v>6</v>
-      </c>
-      <c r="U18" t="s">
-        <v>34</v>
-      </c>
-      <c r="V18" t="s">
-        <v>34</v>
-      </c>
-      <c r="W18" t="s">
-        <v>60</v>
-      </c>
-      <c r="X18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:49">
-      <c r="A19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" t="s">
-        <v>159</v>
-      </c>
-      <c r="I19" t="s">
-        <v>159</v>
-      </c>
-      <c r="J19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" t="s">
-        <v>73</v>
-      </c>
-      <c r="M19" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>5</v>
-      </c>
-      <c r="O19" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>76</v>
-      </c>
-      <c r="R19" t="s">
-        <v>28</v>
-      </c>
-      <c r="S19" t="s">
-        <v>6</v>
-      </c>
-      <c r="T19" t="s">
-        <v>34</v>
-      </c>
-      <c r="U19" t="s">
-        <v>31</v>
-      </c>
-      <c r="V19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:49">
-      <c r="A20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" t="s">
-        <v>160</v>
-      </c>
-      <c r="H20" t="s">
-        <v>160</v>
-      </c>
-      <c r="I20" t="s">
-        <v>160</v>
-      </c>
-      <c r="J20" t="s">
-        <v>160</v>
-      </c>
-      <c r="K20" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" t="s">
-        <v>160</v>
-      </c>
-      <c r="M20" t="s">
-        <v>160</v>
-      </c>
-      <c r="N20" t="s">
-        <v>160</v>
-      </c>
-      <c r="O20" t="s">
-        <v>160</v>
-      </c>
-      <c r="P20" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>160</v>
-      </c>
-      <c r="R20" t="s">
-        <v>160</v>
-      </c>
-      <c r="S20" t="s">
-        <v>160</v>
-      </c>
-      <c r="T20" t="s">
-        <v>160</v>
-      </c>
-      <c r="U20" t="s">
-        <v>160</v>
-      </c>
-      <c r="V20" t="s">
-        <v>160</v>
-      </c>
-      <c r="W20" t="s">
-        <v>160</v>
-      </c>
-      <c r="X20" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>224</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>224</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:49">
-      <c r="A21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21">
-        <v>4.083463466666667</v>
-      </c>
-      <c r="C21">
-        <v>0.3648144766666667</v>
-      </c>
-      <c r="D21">
-        <v>2.750993631052223</v>
-      </c>
-      <c r="E21">
-        <v>0.3648144766666667</v>
-      </c>
-      <c r="F21">
-        <v>0.6666184833333334</v>
-      </c>
-      <c r="G21">
-        <v>21.31200358077563</v>
-      </c>
-      <c r="H21">
-        <v>159.1810802651231</v>
-      </c>
-      <c r="I21">
-        <v>2.825193188234064</v>
-      </c>
-      <c r="J21">
-        <v>3.279478753883296</v>
-      </c>
-      <c r="K21">
-        <v>146.4876831922718</v>
-      </c>
-      <c r="L21">
-        <v>146.4876831922718</v>
-      </c>
-      <c r="M21">
-        <v>146.4876831922718</v>
-      </c>
-      <c r="N21">
-        <v>35.13842849740636</v>
-      </c>
-      <c r="O21">
-        <v>205.0557577777021</v>
-      </c>
-      <c r="P21">
-        <v>178.3032638667916</v>
-      </c>
-      <c r="Q21">
-        <v>26.75249391091045</v>
-      </c>
-      <c r="R21">
-        <v>26.75249391091045</v>
-      </c>
-      <c r="S21">
-        <v>3.478704421243228</v>
-      </c>
-      <c r="T21">
-        <v>184.101519755304</v>
-      </c>
-      <c r="U21">
-        <v>162.8258664783542</v>
-      </c>
-      <c r="V21">
-        <v>21.27565327694985</v>
-      </c>
-      <c r="W21">
-        <v>6.306905717376662</v>
-      </c>
-      <c r="X21">
-        <v>173.1540954795726</v>
-      </c>
-      <c r="Y21">
-        <v>159.5790207263869</v>
-      </c>
-      <c r="Z21">
-        <v>13.57507475318563</v>
-      </c>
-      <c r="AA21">
-        <v>0.3979404612638248</v>
-      </c>
-      <c r="AB21">
-        <v>159.1810802651231</v>
-      </c>
-      <c r="AC21">
-        <v>0.3979404612638248</v>
-      </c>
-      <c r="AD21">
-        <v>0.3979404612638248</v>
-      </c>
-      <c r="AE21">
-        <v>159.1810802651231</v>
-      </c>
-      <c r="AF21">
-        <v>62.36597687897642</v>
-      </c>
-      <c r="AG21">
-        <v>62.36597687897642</v>
-      </c>
-      <c r="AH21">
-        <v>59.54078369074235</v>
-      </c>
-      <c r="AI21">
-        <v>60.20740217407568</v>
-      </c>
-      <c r="AJ21">
-        <v>60.20740217407568</v>
-      </c>
-      <c r="AK21">
-        <v>6.306895763290917</v>
-      </c>
-      <c r="AL21">
-        <v>60.20740217407568</v>
-      </c>
-      <c r="AM21">
-        <v>21.31200358077563</v>
-      </c>
-      <c r="AN21">
-        <v>60.20740217407568</v>
-      </c>
-      <c r="AO21">
-        <v>21.31200358077563</v>
-      </c>
-      <c r="AP21">
-        <v>32.5884928759234</v>
-      </c>
-      <c r="AQ21">
-        <v>27.61890929815229</v>
-      </c>
-      <c r="AR21">
-        <v>32.5884928759234</v>
-      </c>
-      <c r="AS21">
-        <v>3.279478753883296</v>
-      </c>
-      <c r="AT21">
-        <v>3.279478753883296</v>
-      </c>
-      <c r="AU21">
-        <v>2.750993631052223</v>
-      </c>
-      <c r="AV21">
-        <v>2.750993631052223</v>
-      </c>
-      <c r="AW21">
-        <v>38.61713291864959</v>
-      </c>
-    </row>
-    <row r="22" spans="1:49">
-      <c r="A22" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:49">
-      <c r="A23" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0.5651698214045509</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0.9999988619338379</v>
-      </c>
-      <c r="L23">
-        <v>0.9999988619338379</v>
-      </c>
-      <c r="M23">
-        <v>0.9999988619338379</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0.07143789477903922</v>
-      </c>
-      <c r="P23">
-        <v>0.08133482145517267</v>
-      </c>
-      <c r="Q23">
-        <v>0.005475658343009838</v>
-      </c>
-      <c r="R23">
-        <v>0.005475658343009838</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0.007877319074147519</v>
-      </c>
-      <c r="U23">
-        <v>0.008015948571701377</v>
-      </c>
-      <c r="V23">
-        <v>0.006816366079434019</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0.007537816349178877</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0.09614707805030051</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0.02560232372734391</v>
-      </c>
-      <c r="AG23">
-        <v>0.02560232372734391</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>0</v>
-      </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:49">
-      <c r="A24" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0.75</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>2.436297251165659e-07</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0.9821905885863703</v>
-      </c>
-      <c r="O24">
-        <v>0.1446008055929035</v>
-      </c>
-      <c r="P24">
-        <v>0.0997779640924726</v>
-      </c>
-      <c r="Q24">
-        <v>0.4433415122322688</v>
-      </c>
-      <c r="R24">
-        <v>0.4433415122322688</v>
-      </c>
-      <c r="S24">
-        <v>0.9821905885863702</v>
-      </c>
-      <c r="T24">
-        <v>0.1125803210971052</v>
-      </c>
-      <c r="U24">
-        <v>0.01272906366585956</v>
-      </c>
-      <c r="V24">
-        <v>0.8767574440534268</v>
-      </c>
-      <c r="W24">
-        <v>0.002936714814608088</v>
-      </c>
-      <c r="X24">
-        <v>0.01207677126265312</v>
-      </c>
-      <c r="Y24">
-        <v>0.002430221883315717</v>
-      </c>
-      <c r="Z24">
-        <v>0.1254748137288395</v>
-      </c>
-      <c r="AA24">
-        <v>0.9744514187197585</v>
-      </c>
-      <c r="AB24">
-        <v>2.436297251165659e-07</v>
-      </c>
-      <c r="AC24">
-        <v>0.9744514187197585</v>
-      </c>
-      <c r="AD24">
-        <v>0.9744514187197585</v>
-      </c>
-      <c r="AE24">
-        <v>2.436297251165659e-07</v>
-      </c>
-      <c r="AF24">
-        <v>0.522803999052885</v>
-      </c>
-      <c r="AG24">
-        <v>0.522803999052885</v>
-      </c>
-      <c r="AH24">
-        <v>0.5476108995562016</v>
-      </c>
-      <c r="AI24">
-        <v>0.5415477323352756</v>
-      </c>
-      <c r="AJ24">
-        <v>0.5415477323352756</v>
-      </c>
-      <c r="AK24">
-        <v>0.002936719449584179</v>
-      </c>
-      <c r="AL24">
-        <v>0.5415477323352756</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0.5415477323352756</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0.9999437733369168</v>
-      </c>
-      <c r="AQ24">
-        <v>0.0006706124146544625</v>
-      </c>
-      <c r="AR24">
-        <v>0.9999437733369168</v>
-      </c>
-      <c r="AS24">
-        <v>1</v>
-      </c>
-      <c r="AT24">
-        <v>1</v>
-      </c>
-      <c r="AU24">
-        <v>0.75</v>
-      </c>
-      <c r="AV24">
-        <v>0.75</v>
-      </c>
-      <c r="AW24">
-        <v>0.9821905885863703</v>
-      </c>
-    </row>
-    <row r="25" spans="1:49">
-      <c r="A25" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0.7749767878629805</v>
-      </c>
-      <c r="H25">
-        <v>7.469191726001192e-05</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0.07334251780122394</v>
-      </c>
-      <c r="P25">
-        <v>0.005060806596212488</v>
-      </c>
-      <c r="Q25">
-        <v>0.5284347425039818</v>
-      </c>
-      <c r="R25">
-        <v>0.5284347425039818</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0.01298875526949464</v>
-      </c>
-      <c r="U25">
-        <v>0.000734296594442372</v>
-      </c>
-      <c r="V25">
-        <v>0.1067740236236436</v>
-      </c>
-      <c r="W25">
-        <v>0.002261382043833244</v>
-      </c>
-      <c r="X25">
-        <v>0.0007728699933335897</v>
-      </c>
-      <c r="Y25">
-        <v>7.450565884163189e-05</v>
-      </c>
-      <c r="Z25">
-        <v>0.008982349398396108</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>7.469191726001192e-05</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>7.469191726001192e-05</v>
-      </c>
-      <c r="AF25">
-        <v>0.2650575077718011</v>
-      </c>
-      <c r="AG25">
-        <v>0.2650575077718011</v>
-      </c>
-      <c r="AH25">
-        <v>0.2776344108461156</v>
-      </c>
-      <c r="AI25">
-        <v>0.2745604328434727</v>
-      </c>
-      <c r="AJ25">
-        <v>0.2745604328434727</v>
-      </c>
-      <c r="AK25">
-        <v>0.002261385678792374</v>
-      </c>
-      <c r="AL25">
-        <v>0.2745604328434727</v>
-      </c>
-      <c r="AM25">
-        <v>0.7749767878629805</v>
-      </c>
-      <c r="AN25">
-        <v>0.2745604328434727</v>
-      </c>
-      <c r="AO25">
-        <v>0.7749767878629805</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0.5985236499690869</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
-      <c r="AT25">
-        <v>0</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
-      <c r="AW25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:49">
-      <c r="A26" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0.9999250580654273</v>
-      </c>
-      <c r="I26">
-        <v>0.1642611933982203</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0.7083593236972324</v>
-      </c>
-      <c r="P26">
-        <v>0.8138264078561422</v>
-      </c>
-      <c r="Q26">
-        <v>0.005429518398671404</v>
-      </c>
-      <c r="R26">
-        <v>0.005429518398671404</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0.8663044584628203</v>
-      </c>
-      <c r="U26">
-        <v>0.9785206911679968</v>
-      </c>
-      <c r="V26">
-        <v>0.007496266521065127</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0.9201542647036233</v>
-      </c>
-      <c r="Y26">
-        <v>0.9974315558680547</v>
-      </c>
-      <c r="Z26">
-        <v>0.01173683992930053</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0.9999250580654273</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0.9999250580654273</v>
-      </c>
-      <c r="AF26">
-        <v>0.007441070081855613</v>
-      </c>
-      <c r="AG26">
-        <v>0.007441070081855613</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:49">
-      <c r="A27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0.6501967488625703</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0.6501967488625703</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0.1937441969657451</v>
-      </c>
-      <c r="H27">
-        <v>6.38758763633653e-09</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>1.138066162066059e-06</v>
-      </c>
-      <c r="L27">
-        <v>1.138066162066059e-06</v>
-      </c>
-      <c r="M27">
-        <v>1.138066162066059e-06</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0.9948019031415587</v>
-      </c>
-      <c r="X27">
-        <v>0.05872128507404791</v>
-      </c>
-      <c r="Y27">
-        <v>6.37165897880118e-05</v>
-      </c>
-      <c r="Z27">
-        <v>0.7482583599776367</v>
-      </c>
-      <c r="AA27">
-        <v>0.02554858128024142</v>
-      </c>
-      <c r="AB27">
-        <v>6.38758763633653e-09</v>
-      </c>
-      <c r="AC27">
-        <v>0.02554858128024142</v>
-      </c>
-      <c r="AD27">
-        <v>0.02554858128024142</v>
-      </c>
-      <c r="AE27">
-        <v>6.38758763633653e-09</v>
-      </c>
-      <c r="AF27">
-        <v>0.1668382617091018</v>
-      </c>
-      <c r="AG27">
-        <v>0.1668382617091018</v>
-      </c>
-      <c r="AH27">
-        <v>0.1747546895976829</v>
-      </c>
-      <c r="AI27">
-        <v>0.172819799502306</v>
-      </c>
-      <c r="AJ27">
-        <v>0.172819799502306</v>
-      </c>
-      <c r="AK27">
-        <v>0.9948018948716235</v>
-      </c>
-      <c r="AL27">
-        <v>0.172819799502306</v>
-      </c>
-      <c r="AM27">
-        <v>0.1937441969657451</v>
-      </c>
-      <c r="AN27">
-        <v>0.172819799502306</v>
-      </c>
-      <c r="AO27">
-        <v>0.1937441969657451</v>
-      </c>
-      <c r="AP27">
-        <v>5.62266630831852e-05</v>
-      </c>
-      <c r="AQ27">
-        <v>0.3766694302720027</v>
-      </c>
-      <c r="AR27">
-        <v>5.62266630831852e-05</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:49">
-      <c r="A28" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.03127901517127431</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0.1802294710489825</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0.002259458129600962</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0.01731856852206819</v>
-      </c>
-      <c r="R28">
-        <v>0.01731856852206819</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0.0002491460964323606</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0.002155899722430283</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0.008164436755551879</v>
-      </c>
-      <c r="AG28">
-        <v>0.008164436755551879</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0.01107203531894569</v>
-      </c>
-      <c r="AJ28">
-        <v>0.01107203531894569</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0.01107203531894569</v>
-      </c>
-      <c r="AM28">
-        <v>0.03127901517127431</v>
-      </c>
-      <c r="AN28">
-        <v>0.01107203531894569</v>
-      </c>
-      <c r="AO28">
-        <v>0.03127901517127431</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0.024136307344256</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AS28">
-        <v>0</v>
-      </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
-      <c r="AW28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:49">
-      <c r="A29" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0.3498032511374297</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0.3498032511374297</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0.0903395141482462</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0.0007369926171631029</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0.009400558915526658</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0.004092400901460696</v>
-      </c>
-      <c r="AG29">
-        <v>0.004092400901460696</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:49">
-      <c r="A30" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0.25</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0.01780941141362977</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0.01780941141362976</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
       <c r="AB30">
         <v>0</v>
       </c>
@@ -6381,26 +6456,8 @@
       <c r="AQ30">
         <v>0</v>
       </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="AS30">
-        <v>0</v>
-      </c>
-      <c r="AT30">
-        <v>0</v>
-      </c>
-      <c r="AU30">
-        <v>0.25</v>
-      </c>
-      <c r="AV30">
-        <v>0.25</v>
-      </c>
-      <c r="AW30">
-        <v>0.01780941141362976</v>
-      </c>
-    </row>
-    <row r="32" spans="1:49">
+    </row>
+    <row r="32" spans="1:48">
       <c r="B32" s="1" t="s">
         <v>225</v>
       </c>
@@ -6545,40 +6602,40 @@
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="D33" t="s">
-        <v>279</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F33" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G33" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H33" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I33" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="J33" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K33" t="s">
+        <v>165</v>
+      </c>
+      <c r="L33" t="s">
         <v>40</v>
-      </c>
-      <c r="L33" t="s">
-        <v>281</v>
       </c>
       <c r="M33" t="s">
         <v>49</v>
@@ -6593,7 +6650,7 @@
         <v>43</v>
       </c>
       <c r="Q33" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R33" t="s">
         <v>9</v>
@@ -6686,45 +6743,45 @@
         <v>47</v>
       </c>
       <c r="AV33" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:48">
       <c r="A34" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" t="s">
         <v>49</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>43</v>
       </c>
-      <c r="D34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" t="s">
-        <v>280</v>
-      </c>
       <c r="F34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" t="s">
         <v>16</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>19</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" t="s">
         <v>8</v>
       </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s">
         <v>26</v>
       </c>
-      <c r="J34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" t="s">
-        <v>159</v>
-      </c>
       <c r="L34" t="s">
-        <v>279</v>
+        <v>165</v>
       </c>
       <c r="M34" t="s">
         <v>39</v>
@@ -6751,10 +6808,10 @@
         <v>11</v>
       </c>
       <c r="U34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="W34" t="s">
         <v>55</v>
@@ -6820,16 +6877,16 @@
         <v>27</v>
       </c>
       <c r="AR34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AS34" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="AT34" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AU34" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AV34" t="s">
         <v>283</v>
@@ -6837,186 +6894,186 @@
     </row>
     <row r="35" spans="1:48">
       <c r="A35" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="N35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="O35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="R35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="S35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="T35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="U35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="V35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="W35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="X35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Y35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Z35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AA35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AB35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AC35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AD35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AE35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AF35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AG35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AH35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AI35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AJ35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AK35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AL35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AM35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AN35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AO35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AP35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AQ35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AR35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AS35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AT35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AU35" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AV35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:48">
       <c r="A36" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B36">
+        <v>2411.211281900761</v>
+      </c>
+      <c r="C36">
+        <v>2411.211281900761</v>
+      </c>
+      <c r="D36">
         <v>5555.555666666666</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <v>16.66666666666667</v>
       </c>
-      <c r="D36">
-        <v>2411.211281900761</v>
-      </c>
-      <c r="E36">
+      <c r="F36">
         <v>1450.389166666667</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1.4555</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>42.21666666666667</v>
       </c>
-      <c r="H36">
+      <c r="I36">
+        <v>0.01383333333333333</v>
+      </c>
+      <c r="J36">
         <v>279.4507489061759</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>22.5</v>
       </c>
-      <c r="J36">
-        <v>0.01383333333333333</v>
-      </c>
-      <c r="K36">
+      <c r="L36">
         <v>9.583723839167702</v>
-      </c>
-      <c r="L36">
-        <v>2411.211281900761</v>
       </c>
       <c r="M36">
         <v>5555.555666666666</v>
@@ -7129,22 +7186,22 @@
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:48">
       <c r="A38" s="1" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="B38">
+        <v>0.0007446347795519618</v>
+      </c>
+      <c r="C38">
+        <v>0.0007446347795519618</v>
+      </c>
+      <c r="D38">
         <v>0.005999999880000004</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0.0007446347795519618</v>
-      </c>
       <c r="E38">
         <v>0</v>
       </c>
@@ -7164,10 +7221,10 @@
         <v>0</v>
       </c>
       <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>0.006574553504000023</v>
-      </c>
-      <c r="L38">
-        <v>0.0007446347795519618</v>
       </c>
       <c r="M38">
         <v>0.005999999880000004</v>
@@ -7280,7 +7337,7 @@
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="1" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7295,10 +7352,10 @@
         <v>0</v>
       </c>
       <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>0.8499942745906333</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -7450,16 +7507,16 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>0.00144341944378634</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -7572,7 +7629,7 @@
     </row>
     <row r="41" spans="1:48">
       <c r="A41" s="1" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7721,14 +7778,14 @@
         <v>273</v>
       </c>
       <c r="B42">
+        <v>0.09959261352826433</v>
+      </c>
+      <c r="C42">
+        <v>0.09959261352826433</v>
+      </c>
+      <c r="D42">
         <v>0.04322498913550022</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0.09959261352826433</v>
-      </c>
       <c r="E42">
         <v>0</v>
       </c>
@@ -7751,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0.09959261352826433</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0.04322498913550022</v>
@@ -7867,14 +7924,14 @@
         <v>274</v>
       </c>
       <c r="B43">
+        <v>0.03456077613722906</v>
+      </c>
+      <c r="C43">
+        <v>0.03456077613722906</v>
+      </c>
+      <c r="D43">
         <v>0.01499999970000001</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0.03456077613722906</v>
-      </c>
       <c r="E43">
         <v>0</v>
       </c>
@@ -7897,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0.03456077613722906</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0.01499999970000001</v>
@@ -8010,17 +8067,17 @@
     </row>
     <row r="44" spans="1:48">
       <c r="A44" s="1" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="B44">
+        <v>0.008438850358705036</v>
+      </c>
+      <c r="C44">
+        <v>0.008438850358705036</v>
+      </c>
+      <c r="D44">
         <v>0.06800000863999983</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0.008438850358705036</v>
-      </c>
       <c r="E44">
         <v>0</v>
       </c>
@@ -8040,10 +8097,10 @@
         <v>0</v>
       </c>
       <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <v>0.07459861475231738</v>
-      </c>
-      <c r="L44">
-        <v>0.008438850358705036</v>
       </c>
       <c r="M44">
         <v>0.06800000863999983</v>
@@ -8159,13 +8216,13 @@
         <v>275</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.002301747690739456</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.002301747690739456</v>
       </c>
       <c r="D45">
-        <v>0.002301747690739456</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -8174,11 +8231,11 @@
         <v>0</v>
       </c>
       <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>0.1314646664034742</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
       <c r="I45">
         <v>0</v>
       </c>
@@ -8189,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0.002301747690739456</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -8305,14 +8362,14 @@
         <v>276</v>
       </c>
       <c r="B46">
+        <v>0.02189542674932328</v>
+      </c>
+      <c r="C46">
+        <v>0.02189542674932328</v>
+      </c>
+      <c r="D46">
         <v>0.009500009809999805</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0.02189542674932328</v>
-      </c>
       <c r="E46">
         <v>0</v>
       </c>
@@ -8335,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0.02189542674932328</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>0.009500009809999805</v>
@@ -8451,17 +8508,17 @@
         <v>277</v>
       </c>
       <c r="B47">
+        <v>0.1865706128879923</v>
+      </c>
+      <c r="C47">
+        <v>0.1865706128879923</v>
+      </c>
+      <c r="D47">
         <v>0.08067500838649984</v>
       </c>
-      <c r="C47">
+      <c r="E47">
         <v>0.1</v>
       </c>
-      <c r="D47">
-        <v>0.1865706128879923</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
       <c r="F47">
         <v>0</v>
       </c>
@@ -8481,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0.1865706128879923</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0.08067500838649984</v>
@@ -8597,14 +8654,14 @@
         <v>278</v>
       </c>
       <c r="B48">
+        <v>0.1096728859826577</v>
+      </c>
+      <c r="C48">
+        <v>0.1096728859826577</v>
+      </c>
+      <c r="D48">
         <v>0.04760000904799983</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0.1096728859826577</v>
-      </c>
       <c r="E48">
         <v>0</v>
       </c>
@@ -8627,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0.1096728859826577</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0.04760000904799983</v>
@@ -8740,17 +8797,17 @@
     </row>
     <row r="49" spans="1:48">
       <c r="A49" s="1" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="B49">
+        <v>0.007749052945567051</v>
+      </c>
+      <c r="C49">
+        <v>0.007749052945567051</v>
+      </c>
+      <c r="D49">
         <v>0.02999999940000002</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0.007749052945567051</v>
-      </c>
       <c r="E49">
         <v>0</v>
       </c>
@@ -8773,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0.007749052945567051</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0.02999999940000002</v>
@@ -8886,40 +8943,40 @@
     </row>
     <row r="50" spans="1:48">
       <c r="A50" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B50">
+        <v>0.5284733989399699</v>
+      </c>
+      <c r="C50">
+        <v>0.5284733989399699</v>
+      </c>
+      <c r="D50">
         <v>0.6999999760000005</v>
       </c>
-      <c r="C50">
+      <c r="E50">
         <v>0.9</v>
       </c>
-      <c r="D50">
-        <v>0.5284733989399699</v>
-      </c>
-      <c r="E50">
+      <c r="F50">
         <v>1</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.1500057254093668</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.8685353335965259</v>
       </c>
-      <c r="H50">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>1</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
+      <c r="L50">
         <v>0.9173834122998964</v>
-      </c>
-      <c r="L50">
-        <v>0.5284733989399699</v>
       </c>
       <c r="M50">
         <v>0.6999999760000005</v>
@@ -9040,56 +9097,56 @@
     </row>
     <row r="53" spans="1:48">
       <c r="A53" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C53" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:48">
       <c r="A54" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>286</v>
       </c>
       <c r="C54" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:48">
       <c r="A55" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:48">
       <c r="A56" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B56">
-        <v>2750.743829935905</v>
+        <v>84161.26182979328</v>
       </c>
       <c r="C56">
-        <v>84161.2125299044</v>
+        <v>2750.73063091072</v>
       </c>
     </row>
     <row r="57" spans="1:48">
       <c r="A57" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:48">
       <c r="A58" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -9103,7 +9160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E80"/>
   <sheetViews>
@@ -9153,13 +9210,13 @@
         <v>88</v>
       </c>
       <c r="C4">
-        <v>-2759162.407605524</v>
+        <v>-2759060.476803774</v>
       </c>
       <c r="D4">
-        <v>1886.302630076294</v>
+        <v>1886.232945037495</v>
       </c>
       <c r="E4">
-        <v>0.09431513150381469</v>
+        <v>0.09431164725187474</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9323,13 +9380,13 @@
         <v>88</v>
       </c>
       <c r="C15">
-        <v>4853775.558332361</v>
+        <v>4852940.549678304</v>
       </c>
       <c r="D15">
-        <v>142.2385337395292</v>
+        <v>142.2140640447142</v>
       </c>
       <c r="E15">
-        <v>43.5619733430682</v>
+        <v>43.55447925433416</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9357,13 +9414,13 @@
         <v>96</v>
       </c>
       <c r="C17">
-        <v>1114348.981813837</v>
+        <v>1113683.910142136</v>
       </c>
       <c r="D17">
-        <v>32.65568490805854</v>
+        <v>32.63619516893121</v>
       </c>
       <c r="E17">
-        <v>10.00113005994201</v>
+        <v>9.995161132436872</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9754,10 +9811,10 @@
         <v>86</v>
       </c>
       <c r="C46">
-        <v>0.8805788543262215</v>
+        <v>0.8805485323679485</v>
       </c>
       <c r="D46">
-        <v>0.0572376255312044</v>
+        <v>0.05723565460391666</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -9768,10 +9825,10 @@
         <v>86</v>
       </c>
       <c r="C47">
-        <v>3.087094765978227</v>
+        <v>3.086824896122164</v>
       </c>
       <c r="D47">
-        <v>0.2006611597885848</v>
+        <v>0.2006436182479407</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -9782,10 +9839,10 @@
         <v>86</v>
       </c>
       <c r="C48">
-        <v>2.982297983102159</v>
+        <v>2.98202811059348</v>
       </c>
       <c r="D48">
-        <v>0.1938493689016404</v>
+        <v>0.1938318271885762</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -9796,10 +9853,10 @@
         <v>86</v>
       </c>
       <c r="C49">
-        <v>2.228992558887995</v>
+        <v>2.228992558887915</v>
       </c>
       <c r="D49">
-        <v>0.1448845163277197</v>
+        <v>0.1448845163277145</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -10090,10 +10147,10 @@
         <v>87</v>
       </c>
       <c r="C70">
-        <v>43.62664780824325</v>
+        <v>43.62514556300091</v>
       </c>
       <c r="D70">
-        <v>2.835732107535811</v>
+        <v>2.835634461595059</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -10146,10 +10203,10 @@
         <v>87</v>
       </c>
       <c r="C74">
-        <v>1270.99720689844</v>
+        <v>1270.997206896878</v>
       </c>
       <c r="D74">
-        <v>82.61481844839862</v>
+        <v>82.61481844829704</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -10160,10 +10217,10 @@
         <v>87</v>
       </c>
       <c r="C75">
-        <v>1266.501678902423</v>
+        <v>1266.501678902174</v>
       </c>
       <c r="D75">
-        <v>82.3226091286575</v>
+        <v>82.32260912864135</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -10174,10 +10231,10 @@
         <v>87</v>
       </c>
       <c r="C76">
-        <v>15.29443904362817</v>
+        <v>15.29310202342758</v>
       </c>
       <c r="D76">
-        <v>0.9941385378358313</v>
+        <v>0.9940516315227925</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -10202,10 +10259,10 @@
         <v>99</v>
       </c>
       <c r="C78">
-        <v>10.77210099284767</v>
+        <v>10.77210099284766</v>
       </c>
       <c r="D78">
-        <v>0.7001865645350984</v>
+        <v>0.7001865645350982</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -10216,10 +10273,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>26.48783960209116</v>
+        <v>26.48783960129065</v>
       </c>
       <c r="D79">
-        <v>1.721709574135925</v>
+        <v>1.721709574083892</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -10230,10 +10287,10 @@
         <v>82</v>
       </c>
       <c r="C80">
-        <v>24.18461800574608</v>
+        <v>24.1846180056188</v>
       </c>
       <c r="D80">
-        <v>1.572000170373495</v>
+        <v>1.572000170365222</v>
       </c>
     </row>
   </sheetData>
@@ -10241,7 +10298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Y249"/>
   <sheetViews>
@@ -10561,7 +10618,7 @@
         <v>-26353763.32746015</v>
       </c>
       <c r="E27">
-        <v>-2759162.407605524</v>
+        <v>-2759060.476803774</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10576,7 +10633,7 @@
         <v>18016.76223913799</v>
       </c>
       <c r="E28">
-        <v>1886.302630076294</v>
+        <v>1886.232945037495</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -10591,7 +10648,7 @@
         <v>0.9008381119568997</v>
       </c>
       <c r="E29">
-        <v>0.09431513150381469</v>
+        <v>0.09431164725187474</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -10608,7 +10665,7 @@
         <v>11094901.82582005</v>
       </c>
       <c r="E30">
-        <v>4853775.558332361</v>
+        <v>4852940.549678304</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -10623,7 +10680,7 @@
         <v>325.1329915697365</v>
       </c>
       <c r="E31">
-        <v>142.2385337395292</v>
+        <v>142.2140640447142</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -10638,7 +10695,7 @@
         <v>99.57522999814749</v>
       </c>
       <c r="E32">
-        <v>43.5619733430682</v>
+        <v>43.55447925433416</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10679,7 +10736,7 @@
         <v>1.449739532573784</v>
       </c>
       <c r="E35">
-        <v>0.6429463348115736</v>
+        <v>0.6429225826630196</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -10694,7 +10751,7 @@
         <v>1.81217441571723</v>
       </c>
       <c r="E36">
-        <v>1.285892669623147</v>
+        <v>1.285845165326039</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -10763,7 +10820,7 @@
         <v>16.93873732044701</v>
       </c>
       <c r="E41">
-        <v>6.043634403942367</v>
+        <v>6.043569446264397</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -10823,7 +10880,7 @@
         <v>32743.67255133835</v>
       </c>
       <c r="E45">
-        <v>10142.27738528191</v>
+        <v>10142.1509562447</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -10885,7 +10942,7 @@
         <v>294565.6305247549</v>
       </c>
       <c r="E49">
-        <v>141720.9832143716</v>
+        <v>141719.9389484107</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -10915,7 +10972,7 @@
         <v>49642.75076953346</v>
       </c>
       <c r="E51">
-        <v>21389.85696791804</v>
+        <v>21389.59725908807</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -10930,7 +10987,7 @@
         <v>6025.874178179559</v>
       </c>
       <c r="E52">
-        <v>5840.246463925962</v>
+        <v>5840.123034759782</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -10960,7 +11017,7 @@
         <v>100.4760681101044</v>
       </c>
       <c r="E54">
-        <v>43.65628847457202</v>
+        <v>43.64879090158604</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -11144,7 +11201,7 @@
         <v>23982.24369914123</v>
       </c>
       <c r="E70">
-        <v>1114348.981813837</v>
+        <v>1113683.910142136</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -11159,7 +11216,7 @@
         <v>0.7027929368703475</v>
       </c>
       <c r="E71">
-        <v>32.65568490805854</v>
+        <v>32.63619516893121</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -11174,7 +11231,7 @@
         <v>0.2152373648459126</v>
       </c>
       <c r="E72">
-        <v>10.00113005994201</v>
+        <v>9.995161132436872</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -11280,7 +11337,7 @@
         <v>464.9685079737528</v>
       </c>
       <c r="E79">
-        <v>4620.829954855664</v>
+        <v>4620.422342434998</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -11307,7 +11364,7 @@
         <v>208425.4012381564</v>
       </c>
       <c r="E81">
-        <v>20559.1738741975</v>
+        <v>20558.76626177683</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -11322,7 +11379,7 @@
         <v>2.036120484386407</v>
       </c>
       <c r="E82">
-        <v>10.00113005994201</v>
+        <v>9.995161132436872</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -11458,10 +11515,10 @@
         <v>11.38812192395676</v>
       </c>
       <c r="L88">
-        <v>24.25947080046645</v>
+        <v>24.24305956240452</v>
       </c>
       <c r="M88">
-        <v>224.764061123415</v>
+        <v>224.7468168437853</v>
       </c>
       <c r="N88">
         <v>607.3125390139638</v>
@@ -11751,10 +11808,10 @@
         <v>3667.900323861652</v>
       </c>
       <c r="L95">
-        <v>4139.67455038559</v>
+        <v>4139.226352676653</v>
       </c>
       <c r="M95">
-        <v>16334.21286855172</v>
+        <v>16334.08210158667</v>
       </c>
       <c r="N95">
         <v>19805.44587805581</v>
@@ -11793,10 +11850,10 @@
         <v>3667.900323861652</v>
       </c>
       <c r="L96">
-        <v>4139.67455038559</v>
+        <v>4139.226352676653</v>
       </c>
       <c r="M96">
-        <v>16334.21286855172</v>
+        <v>16334.08210158667</v>
       </c>
       <c r="N96">
         <v>19805.44587805581</v>
@@ -11882,16 +11939,16 @@
         <v>1314.783904373222</v>
       </c>
       <c r="E100">
-        <v>1270.99720689844</v>
+        <v>1270.997206896878</v>
       </c>
       <c r="F100">
-        <v>1266.501678902423</v>
+        <v>1266.501678902174</v>
       </c>
       <c r="G100">
-        <v>43.62664780824325</v>
+        <v>43.62514556300091</v>
       </c>
       <c r="H100">
-        <v>15.29443904362817</v>
+        <v>15.29310202342758</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -11906,16 +11963,16 @@
         <v>85.46095378425942</v>
       </c>
       <c r="E101">
-        <v>82.61481844839862</v>
+        <v>82.61481844829704</v>
       </c>
       <c r="F101">
-        <v>82.3226091286575</v>
+        <v>82.32260912864135</v>
       </c>
       <c r="G101">
-        <v>2.835732107535811</v>
+        <v>2.835634461595059</v>
       </c>
       <c r="H101">
-        <v>0.9941385378358313</v>
+        <v>0.9940516315227925</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -11932,16 +11989,16 @@
         <v>359.2305749653611</v>
       </c>
       <c r="E102">
-        <v>347.2669964203388</v>
+        <v>347.2669964199119</v>
       </c>
       <c r="F102">
-        <v>346.0387100826292</v>
+        <v>346.0387100825614</v>
       </c>
       <c r="G102">
-        <v>11.91984912793531</v>
+        <v>11.91943867841555</v>
       </c>
       <c r="H102">
-        <v>4.178808481865621</v>
+        <v>4.178443175799885</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -11958,16 +12015,16 @@
         <v>889132.3007055847</v>
       </c>
       <c r="E103">
-        <v>872013.0261904933</v>
+        <v>872013.0261898779</v>
       </c>
       <c r="F103">
-        <v>870241.2918905168</v>
+        <v>870241.2918904189</v>
       </c>
       <c r="G103">
-        <v>125881.3908348203</v>
+        <v>125878.9027475812</v>
       </c>
       <c r="H103">
-        <v>68970.95408473288</v>
+        <v>68967.4931721569</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -11982,16 +12039,16 @@
         <v>889132.3007055847</v>
       </c>
       <c r="E104">
-        <v>872013.0261904933</v>
+        <v>872013.0261898779</v>
       </c>
       <c r="F104">
-        <v>870241.2918905168</v>
+        <v>870241.2918904189</v>
       </c>
       <c r="G104">
-        <v>125881.3908348203</v>
+        <v>125878.9027475812</v>
       </c>
       <c r="H104">
-        <v>68970.95408473288</v>
+        <v>68967.4931721569</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -12006,16 +12063,16 @@
         <v>85.46095378425942</v>
       </c>
       <c r="E105">
-        <v>82.61481844839862</v>
+        <v>82.61481844829704</v>
       </c>
       <c r="F105">
-        <v>82.3226091286575</v>
+        <v>82.32260912864135</v>
       </c>
       <c r="G105">
-        <v>2.835732107535811</v>
+        <v>2.835634461595059</v>
       </c>
       <c r="H105">
-        <v>0.9941385378358313</v>
+        <v>0.9940516315227925</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -12665,25 +12722,25 @@
         <v>1.494813748725809</v>
       </c>
       <c r="O142">
-        <v>0.2481109493634459</v>
+        <v>0.24811094930316</v>
       </c>
       <c r="P142">
         <v>0.004724918791619548</v>
       </c>
       <c r="Q142">
-        <v>0.4069912518417687</v>
+        <v>0.4069899488775707</v>
       </c>
       <c r="R142">
-        <v>0.6277380140610842</v>
+        <v>0.6276831380108356</v>
       </c>
       <c r="S142">
-        <v>0.6064283590781514</v>
+        <v>0.6063734824885131</v>
       </c>
       <c r="T142">
         <v>0.02829893094561407</v>
       </c>
       <c r="U142">
-        <v>0.01780745676831516</v>
+        <v>0.01780745676830287</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -12728,25 +12785,25 @@
         <v>43.81368762410581</v>
       </c>
       <c r="O143">
-        <v>7.272247556457506</v>
+        <v>7.272247554690501</v>
       </c>
       <c r="P143">
         <v>0.1384895718023389</v>
       </c>
       <c r="Q143">
-        <v>48.44676633048777</v>
+        <v>48.44661123034311</v>
       </c>
       <c r="R143">
-        <v>18.39929374565433</v>
+        <v>18.39768530304689</v>
       </c>
       <c r="S143">
-        <v>17.7746978268681</v>
+        <v>17.77308936845089</v>
       </c>
       <c r="T143">
         <v>1.100410107052814</v>
       </c>
       <c r="U143">
-        <v>0.692446843536931</v>
+        <v>0.6924468435364532</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -12797,10 +12854,10 @@
         <v>0.3519826208428243</v>
       </c>
       <c r="R144">
-        <v>0.3568695925966031</v>
+        <v>0.3568684153472174</v>
       </c>
       <c r="S144">
-        <v>0.3564035671002724</v>
+        <v>0.3564023434633664</v>
       </c>
       <c r="T144">
         <v>0.3519826208428243</v>
@@ -12980,13 +13037,13 @@
         <v>9400.547814245096</v>
       </c>
       <c r="Q147">
-        <v>141.0038803770939</v>
+        <v>141.0045233805494</v>
       </c>
       <c r="R147">
-        <v>479.8588615831498</v>
+        <v>479.9161486336972</v>
       </c>
       <c r="S147">
-        <v>497.0629123000541</v>
+        <v>497.124380996491</v>
       </c>
       <c r="T147">
         <v>1140.686863393674</v>
@@ -13039,25 +13096,25 @@
         <v>4321.028816674859</v>
       </c>
       <c r="O148">
-        <v>1658.98022187744</v>
+        <v>1658.980221474343</v>
       </c>
       <c r="P148">
         <v>149.5553958246021</v>
       </c>
       <c r="Q148">
-        <v>4326.697052766016</v>
+        <v>4326.697248991182</v>
       </c>
       <c r="R148">
-        <v>4451.451432889497</v>
+        <v>4451.465083116163</v>
       </c>
       <c r="S148">
-        <v>4413.837490363315</v>
+        <v>4413.71095861025</v>
       </c>
       <c r="T148">
         <v>413.9484144550281</v>
       </c>
       <c r="U148">
-        <v>284.4040071055354</v>
+        <v>284.4040071053392</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -13165,25 +13222,25 @@
         <v>4801.50228485673</v>
       </c>
       <c r="O150">
-        <v>2014.939072373461</v>
+        <v>2014.939071970364</v>
       </c>
       <c r="P150">
         <v>345.0352818567669</v>
       </c>
       <c r="Q150">
-        <v>4725.637311605788</v>
+        <v>4725.637507830954</v>
       </c>
       <c r="R150">
-        <v>4863.097650891294</v>
+        <v>4863.11130111796</v>
       </c>
       <c r="S150">
-        <v>4825.483708365112</v>
+        <v>4825.357176612047</v>
       </c>
       <c r="T150">
         <v>609.4283004871929</v>
       </c>
       <c r="U150">
-        <v>479.8838931377002</v>
+        <v>479.8838931375039</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -13469,10 +13526,10 @@
         <v>305</v>
       </c>
       <c r="D171">
-        <v>26.48783960209116</v>
+        <v>26.48783960129065</v>
       </c>
       <c r="E171">
-        <v>24.18461800574608</v>
+        <v>24.1846180056188</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -13484,10 +13541,10 @@
         <v>305</v>
       </c>
       <c r="D172">
-        <v>1.721709574135925</v>
+        <v>1.721709574083892</v>
       </c>
       <c r="E172">
-        <v>1.572000170373495</v>
+        <v>1.572000170365222</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -13548,10 +13605,10 @@
         <v>386</v>
       </c>
       <c r="D176">
-        <v>17.65855973472744</v>
+        <v>17.65855973419377</v>
       </c>
       <c r="E176">
-        <v>16.12307867049739</v>
+        <v>16.12307867041253</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -13565,10 +13622,10 @@
         <v>307</v>
       </c>
       <c r="D177">
-        <v>78594.55508831833</v>
+        <v>78594.55508701196</v>
       </c>
       <c r="E177">
-        <v>74758.99280043849</v>
+        <v>74758.99280022208</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -13580,10 +13637,10 @@
         <v>307</v>
       </c>
       <c r="D178">
-        <v>78594.55508831833</v>
+        <v>78594.55508701196</v>
       </c>
       <c r="E178">
-        <v>74758.99280043849</v>
+        <v>74758.99280022208</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -13595,10 +13652,10 @@
         <v>308</v>
       </c>
       <c r="D179">
-        <v>1.880147469096987</v>
+        <v>1.880147469044955</v>
       </c>
       <c r="E179">
-        <v>1.586797020866536</v>
+        <v>1.586797020858262</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -14162,28 +14219,28 @@
         <v>6.219294745643</v>
       </c>
       <c r="R218">
-        <v>1.489981140991915</v>
+        <v>1.489929834801943</v>
       </c>
       <c r="S218">
-        <v>5.223510602332026</v>
+        <v>5.223053969749856</v>
       </c>
       <c r="T218">
-        <v>5.046189480714314</v>
+        <v>5.04573284364379</v>
       </c>
       <c r="U218">
         <v>167.9481244468524</v>
       </c>
       <c r="V218">
-        <v>105.6834610167653</v>
+        <v>105.6834610166924</v>
       </c>
       <c r="W218">
-        <v>3.771561013346861</v>
+        <v>3.771561013346726</v>
       </c>
       <c r="X218">
-        <v>689.2870048700171</v>
+        <v>689.3166313989775</v>
       </c>
       <c r="Y218">
-        <v>7394.101061568879</v>
+        <v>7394.07738968689</v>
       </c>
     </row>
     <row r="219" spans="1:25">
@@ -14239,28 +14296,28 @@
         <v>34060.95573528966</v>
       </c>
       <c r="R219">
-        <v>16086.53976050056</v>
+        <v>16086.24894705277</v>
       </c>
       <c r="S219">
-        <v>31079.42919780508</v>
+        <v>31078.00278322122</v>
       </c>
       <c r="T219">
-        <v>30520.98865936227</v>
+        <v>30519.53863651132</v>
       </c>
       <c r="U219">
         <v>93789.08635508857</v>
       </c>
       <c r="V219">
-        <v>83115.89319938555</v>
+        <v>83115.89319937307</v>
       </c>
       <c r="W219">
-        <v>26194.87491969307</v>
+        <v>26194.87491969257</v>
       </c>
       <c r="X219">
-        <v>183155.1932895978</v>
+        <v>183160.2717666779</v>
       </c>
       <c r="Y219">
-        <v>1002336.413399086</v>
+        <v>1002334.004827896</v>
       </c>
     </row>
     <row r="220" spans="1:25">
@@ -14314,28 +14371,28 @@
         <v>34060.95573528966</v>
       </c>
       <c r="R220">
-        <v>16086.53976050056</v>
+        <v>16086.24894705277</v>
       </c>
       <c r="S220">
-        <v>31079.42919780508</v>
+        <v>31078.00278322122</v>
       </c>
       <c r="T220">
-        <v>30520.98865936227</v>
+        <v>30519.53863651132</v>
       </c>
       <c r="U220">
         <v>93789.08635508857</v>
       </c>
       <c r="V220">
-        <v>83115.89319938555</v>
+        <v>83115.89319937307</v>
       </c>
       <c r="W220">
-        <v>26194.87491969307</v>
+        <v>26194.87491969257</v>
       </c>
       <c r="X220">
-        <v>183155.1932895978</v>
+        <v>183160.2717666779</v>
       </c>
       <c r="Y220">
-        <v>1002336.413399086</v>
+        <v>1002334.004827896</v>
       </c>
     </row>
     <row r="221" spans="1:25">
@@ -14389,13 +14446,13 @@
         <v>0</v>
       </c>
       <c r="R221">
-        <v>0.0572376255312044</v>
+        <v>0.05723565460391666</v>
       </c>
       <c r="S221">
-        <v>0.2006611597885848</v>
+        <v>0.2006436182479407</v>
       </c>
       <c r="T221">
-        <v>0.1938493689016404</v>
+        <v>0.1938318271885762</v>
       </c>
       <c r="U221">
         <v>0</v>
@@ -14404,7 +14461,7 @@
         <v>0</v>
       </c>
       <c r="W221">
-        <v>0.1448845163277197</v>
+        <v>0.1448845163277145</v>
       </c>
       <c r="X221">
         <v>0</v>
@@ -14436,7 +14493,7 @@
         <v>305</v>
       </c>
       <c r="D224">
-        <v>10.77210099284767</v>
+        <v>10.77210099284766</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -14448,7 +14505,7 @@
         <v>305</v>
       </c>
       <c r="D225">
-        <v>0.7001865645350984</v>
+        <v>0.7001865645350982</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -14507,7 +14564,7 @@
         <v>337</v>
       </c>
       <c r="D230">
-        <v>6.390519438129783</v>
+        <v>6.390498979169065</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -14593,7 +14650,7 @@
         <v>308</v>
       </c>
       <c r="D237">
-        <v>0.7001865645350984</v>
+        <v>0.7001865645350982</v>
       </c>
     </row>
     <row r="239" spans="1:5">
